--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -2900,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S131" sqref="S131"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -5790,7 +5790,9 @@
       <c r="P117" s="24"/>
     </row>
     <row r="118" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="13"/>
+      <c r="B118" s="13">
+        <v>114</v>
+      </c>
       <c r="C118" s="19"/>
       <c r="D118" s="14" t="s">
         <v>141</v>
@@ -5815,7 +5817,9 @@
       <c r="P118" s="24"/>
     </row>
     <row r="119" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="13"/>
+      <c r="B119" s="13">
+        <v>115</v>
+      </c>
       <c r="C119" s="17" t="s">
         <v>164</v>
       </c>
@@ -5842,7 +5846,9 @@
       <c r="P119" s="24"/>
     </row>
     <row r="120" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="13"/>
+      <c r="B120" s="13">
+        <v>116</v>
+      </c>
       <c r="C120" s="18"/>
       <c r="D120" s="14" t="s">
         <v>116</v>
@@ -5865,7 +5871,9 @@
       <c r="P120" s="24"/>
     </row>
     <row r="121" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="13"/>
+      <c r="B121" s="13">
+        <v>117</v>
+      </c>
       <c r="C121" s="18"/>
       <c r="D121" s="14" t="s">
         <v>116</v>
@@ -5888,7 +5896,9 @@
       <c r="P121" s="24"/>
     </row>
     <row r="122" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
+      <c r="B122" s="13">
+        <v>118</v>
+      </c>
       <c r="C122" s="18"/>
       <c r="D122" s="14" t="s">
         <v>116</v>
@@ -5911,7 +5921,9 @@
       <c r="P122" s="24"/>
     </row>
     <row r="123" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="13"/>
+      <c r="B123" s="13">
+        <v>119</v>
+      </c>
       <c r="C123" s="18"/>
       <c r="D123" s="14" t="s">
         <v>116</v>
@@ -5934,7 +5946,9 @@
       <c r="P123" s="24"/>
     </row>
     <row r="124" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="13"/>
+      <c r="B124" s="13">
+        <v>120</v>
+      </c>
       <c r="C124" s="18"/>
       <c r="D124" s="14" t="s">
         <v>116</v>
@@ -5957,7 +5971,9 @@
       <c r="P124" s="24"/>
     </row>
     <row r="125" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="13"/>
+      <c r="B125" s="13">
+        <v>121</v>
+      </c>
       <c r="C125" s="18"/>
       <c r="D125" s="14" t="s">
         <v>116</v>
@@ -5980,7 +5996,9 @@
       <c r="P125" s="24"/>
     </row>
     <row r="126" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
+      <c r="B126" s="13">
+        <v>122</v>
+      </c>
       <c r="C126" s="18"/>
       <c r="D126" s="14" t="s">
         <v>116</v>
@@ -6003,7 +6021,9 @@
       <c r="P126" s="24"/>
     </row>
     <row r="127" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
+      <c r="B127" s="13">
+        <v>123</v>
+      </c>
       <c r="C127" s="18"/>
       <c r="D127" s="14" t="s">
         <v>116</v>
@@ -6026,7 +6046,9 @@
       <c r="P127" s="24"/>
     </row>
     <row r="128" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
+      <c r="B128" s="13">
+        <v>124</v>
+      </c>
       <c r="C128" s="18"/>
       <c r="D128" s="14" t="s">
         <v>116</v>
@@ -6049,7 +6071,9 @@
       <c r="P128" s="24"/>
     </row>
     <row r="129" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
+      <c r="B129" s="13">
+        <v>125</v>
+      </c>
       <c r="C129" s="18"/>
       <c r="D129" s="14" t="s">
         <v>116</v>
@@ -6072,7 +6096,9 @@
       <c r="P129" s="24"/>
     </row>
     <row r="130" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="13"/>
+      <c r="B130" s="13">
+        <v>126</v>
+      </c>
       <c r="C130" s="18"/>
       <c r="D130" s="14" t="s">
         <v>116</v>
@@ -6095,7 +6121,9 @@
       <c r="P130" s="24"/>
     </row>
     <row r="131" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="13"/>
+      <c r="B131" s="13">
+        <v>127</v>
+      </c>
       <c r="C131" s="18"/>
       <c r="D131" s="14" t="s">
         <v>116</v>
@@ -6118,7 +6146,9 @@
       <c r="P131" s="24"/>
     </row>
     <row r="132" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="13"/>
+      <c r="B132" s="13">
+        <v>128</v>
+      </c>
       <c r="C132" s="18"/>
       <c r="D132" s="14" t="s">
         <v>116</v>
@@ -6145,7 +6175,9 @@
       <c r="P132" s="67"/>
     </row>
     <row r="133" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
+      <c r="B133" s="13">
+        <v>129</v>
+      </c>
       <c r="C133" s="18"/>
       <c r="D133" s="14" t="s">
         <v>116</v>
@@ -6168,7 +6200,9 @@
       <c r="P133" s="24"/>
     </row>
     <row r="134" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
+      <c r="B134" s="13">
+        <v>130</v>
+      </c>
       <c r="C134" s="19"/>
       <c r="D134" s="14" t="s">
         <v>116</v>

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -16,6 +16,10 @@
     <sheet name="結合テスト " sheetId="4" r:id="rId2"/>
     <sheet name="原紙" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">単体テスト!$B$4:$P$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単体テスト!$B$2:$P$127</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="210">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -2375,6 +2379,51 @@
 11.「住所(番地)」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可とし、100字以内で入力
 12.「アカウント権限」を「一般」または「管理者」で選択
 13.入力フォーム下部のボタン「確認する」をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0158877→158877で表示される</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>―</t>
+  </si>
+  <si>
+    <t>―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認日付：2024年12月21日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2457,7 +2506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2467,6 +2516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2795,7 +2850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3028,6 +3083,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3312,8 +3370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P142"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -7419,17 +7477,18 @@
     <mergeCell ref="J134:M134"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P47"/>
+  <dimension ref="B1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I6"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -7448,8 +7507,8 @@
     <col min="12" max="12" width="27.5546875" style="10" customWidth="1"/>
     <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
     <col min="14" max="14" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="24.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="16" max="16" width="25.77734375" style="10" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="1"/>
     <col min="18" max="18" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
@@ -7463,12 +7522,12 @@
       <c r="C2" s="58"/>
       <c r="D2" s="4"/>
       <c r="F2" s="21" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="21" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -7539,9 +7598,11 @@
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
       <c r="M5" s="64"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="N5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="2:16" ht="397.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="77">
@@ -7568,9 +7629,11 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
+      <c r="N6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="77">
@@ -7597,9 +7660,11 @@
       <c r="K7" s="63"/>
       <c r="L7" s="63"/>
       <c r="M7" s="64"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
+      <c r="N7" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O7" s="32"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="77">
@@ -7620,9 +7685,11 @@
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
       <c r="M8" s="64"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
+      <c r="N8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="77">
@@ -7643,9 +7710,11 @@
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
       <c r="M9" s="64"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
+      <c r="N9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" s="32"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="77">
@@ -7666,9 +7735,11 @@
       <c r="K10" s="63"/>
       <c r="L10" s="63"/>
       <c r="M10" s="64"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="N10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
     </row>
     <row r="11" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="77">
@@ -7689,9 +7760,11 @@
       <c r="K11" s="63"/>
       <c r="L11" s="63"/>
       <c r="M11" s="64"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="N11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="33"/>
     </row>
     <row r="12" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="77">
@@ -7712,9 +7785,11 @@
       <c r="K12" s="63"/>
       <c r="L12" s="63"/>
       <c r="M12" s="64"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="N12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="33"/>
     </row>
     <row r="13" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="77">
@@ -7735,9 +7810,11 @@
       <c r="K13" s="63"/>
       <c r="L13" s="63"/>
       <c r="M13" s="64"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="N13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13" s="32"/>
+      <c r="P13" s="33"/>
     </row>
     <row r="14" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="77">
@@ -7758,9 +7835,11 @@
       <c r="K14" s="63"/>
       <c r="L14" s="63"/>
       <c r="M14" s="64"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="N14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="33"/>
     </row>
     <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="77">
@@ -7781,9 +7860,11 @@
       <c r="K15" s="63"/>
       <c r="L15" s="63"/>
       <c r="M15" s="64"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="31"/>
+      <c r="N15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
     </row>
     <row r="16" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="77">
@@ -7804,9 +7885,11 @@
       <c r="K16" s="63"/>
       <c r="L16" s="63"/>
       <c r="M16" s="64"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
+      <c r="N16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="77">
@@ -7827,9 +7910,11 @@
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
       <c r="M17" s="64"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="N17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17" s="32"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="77">
@@ -7850,9 +7935,11 @@
       <c r="K18" s="63"/>
       <c r="L18" s="63"/>
       <c r="M18" s="64"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="N18" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
     </row>
     <row r="19" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="77">
@@ -7877,9 +7964,11 @@
       <c r="K19" s="63"/>
       <c r="L19" s="63"/>
       <c r="M19" s="64"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
+      <c r="N19" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="77">
@@ -7900,9 +7989,11 @@
       <c r="K20" s="63"/>
       <c r="L20" s="63"/>
       <c r="M20" s="64"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
+      <c r="N20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="77">
@@ -7923,9 +8014,11 @@
       <c r="K21" s="63"/>
       <c r="L21" s="63"/>
       <c r="M21" s="64"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
+      <c r="N21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
     </row>
     <row r="22" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="77">
@@ -7946,9 +8039,11 @@
       <c r="K22" s="63"/>
       <c r="L22" s="63"/>
       <c r="M22" s="64"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
+      <c r="N22" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="33"/>
     </row>
     <row r="23" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="77">
@@ -7969,9 +8064,11 @@
       <c r="K23" s="63"/>
       <c r="L23" s="63"/>
       <c r="M23" s="64"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
+      <c r="N23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O23" s="32"/>
+      <c r="P23" s="33"/>
     </row>
     <row r="24" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="77">
@@ -7992,9 +8089,11 @@
       <c r="K24" s="63"/>
       <c r="L24" s="63"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
+      <c r="N24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" s="32"/>
+      <c r="P24" s="33"/>
     </row>
     <row r="25" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="77">
@@ -8015,9 +8114,11 @@
       <c r="K25" s="63"/>
       <c r="L25" s="63"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
+      <c r="N25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="33"/>
     </row>
     <row r="26" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="77">
@@ -8038,9 +8139,11 @@
       <c r="K26" s="63"/>
       <c r="L26" s="63"/>
       <c r="M26" s="64"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="N26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" s="32"/>
+      <c r="P26" s="33"/>
     </row>
     <row r="27" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="77">
@@ -8061,9 +8164,11 @@
       <c r="K27" s="63"/>
       <c r="L27" s="63"/>
       <c r="M27" s="64"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="31"/>
+      <c r="N27" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" s="32"/>
+      <c r="P27" s="33"/>
     </row>
     <row r="28" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="77">
@@ -8084,9 +8189,11 @@
       <c r="K28" s="63"/>
       <c r="L28" s="63"/>
       <c r="M28" s="64"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
+      <c r="N28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" s="32"/>
+      <c r="P28" s="33"/>
     </row>
     <row r="29" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="77">
@@ -8107,9 +8214,11 @@
       <c r="K29" s="63"/>
       <c r="L29" s="63"/>
       <c r="M29" s="64"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31"/>
+      <c r="N29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" s="32"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="77">
@@ -8130,9 +8239,11 @@
       <c r="K30" s="63"/>
       <c r="L30" s="63"/>
       <c r="M30" s="64"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
+      <c r="N30" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O30" s="32"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="77">
@@ -8157,9 +8268,11 @@
       <c r="K31" s="63"/>
       <c r="L31" s="63"/>
       <c r="M31" s="64"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31"/>
+      <c r="N31" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O31" s="32"/>
+      <c r="P31" s="33"/>
     </row>
     <row r="32" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="77">
@@ -8186,9 +8299,11 @@
       <c r="K32" s="63"/>
       <c r="L32" s="63"/>
       <c r="M32" s="64"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
+      <c r="N32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O32" s="32"/>
+      <c r="P32" s="33"/>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="77">
@@ -8211,9 +8326,11 @@
       <c r="K33" s="63"/>
       <c r="L33" s="63"/>
       <c r="M33" s="64"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="31"/>
+      <c r="N33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O33" s="32"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="77">
@@ -8236,9 +8353,11 @@
       <c r="K34" s="63"/>
       <c r="L34" s="63"/>
       <c r="M34" s="64"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
+      <c r="N34" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O34" s="32"/>
+      <c r="P34" s="33"/>
     </row>
     <row r="35" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="77">
@@ -8261,9 +8380,11 @@
       <c r="K35" s="63"/>
       <c r="L35" s="63"/>
       <c r="M35" s="64"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="31"/>
+      <c r="N35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O35" s="32"/>
+      <c r="P35" s="33"/>
     </row>
     <row r="36" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="77">
@@ -8286,9 +8407,11 @@
       <c r="K36" s="63"/>
       <c r="L36" s="63"/>
       <c r="M36" s="64"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
+      <c r="N36" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O36" s="32"/>
+      <c r="P36" s="33"/>
     </row>
     <row r="37" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="77">
@@ -8311,9 +8434,11 @@
       <c r="K37" s="63"/>
       <c r="L37" s="63"/>
       <c r="M37" s="64"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
+      <c r="N37" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O37" s="32"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="77">
@@ -8336,9 +8461,11 @@
       <c r="K38" s="63"/>
       <c r="L38" s="63"/>
       <c r="M38" s="64"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="31"/>
+      <c r="N38" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O38" s="32"/>
+      <c r="P38" s="33"/>
     </row>
     <row r="39" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="77">
@@ -8361,9 +8488,11 @@
       <c r="K39" s="63"/>
       <c r="L39" s="63"/>
       <c r="M39" s="64"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="31"/>
+      <c r="N39" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O39" s="32"/>
+      <c r="P39" s="33"/>
     </row>
     <row r="40" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="77">
@@ -8386,9 +8515,13 @@
       <c r="K40" s="63"/>
       <c r="L40" s="63"/>
       <c r="M40" s="64"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
+      <c r="N40" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="O40" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" s="33"/>
     </row>
     <row r="41" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="77">
@@ -8411,9 +8544,11 @@
       <c r="K41" s="63"/>
       <c r="L41" s="63"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="31"/>
+      <c r="N41" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" s="32"/>
+      <c r="P41" s="33"/>
     </row>
     <row r="42" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="77">
@@ -8436,9 +8571,11 @@
       <c r="K42" s="63"/>
       <c r="L42" s="63"/>
       <c r="M42" s="64"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="31"/>
+      <c r="N42" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O42" s="32"/>
+      <c r="P42" s="33"/>
     </row>
     <row r="43" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="77">
@@ -8461,9 +8598,11 @@
       <c r="K43" s="63"/>
       <c r="L43" s="63"/>
       <c r="M43" s="64"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="31"/>
+      <c r="N43" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O43" s="32"/>
+      <c r="P43" s="33"/>
     </row>
     <row r="44" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="77">
@@ -8486,9 +8625,11 @@
       <c r="K44" s="63"/>
       <c r="L44" s="63"/>
       <c r="M44" s="64"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="31"/>
+      <c r="N44" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O44" s="32"/>
+      <c r="P44" s="33"/>
     </row>
     <row r="45" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="77">
@@ -8506,12 +8647,14 @@
       <c r="H45" s="36"/>
       <c r="I45" s="37"/>
       <c r="J45" s="62" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="K45" s="63"/>
       <c r="L45" s="63"/>
       <c r="M45" s="64"/>
-      <c r="N45" s="9"/>
+      <c r="N45" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="O45" s="32"/>
       <c r="P45" s="33"/>
     </row>
@@ -8536,9 +8679,11 @@
       <c r="K46" s="63"/>
       <c r="L46" s="63"/>
       <c r="M46" s="64"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="31"/>
+      <c r="N46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O46" s="32"/>
+      <c r="P46" s="33"/>
     </row>
     <row r="47" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="77">
@@ -8561,9 +8706,31 @@
       <c r="K47" s="63"/>
       <c r="L47" s="63"/>
       <c r="M47" s="64"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
+      <c r="N47" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" s="33"/>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="N49" s="10">
+        <f>COUNTIF(N5:N47,"OK")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M50" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N50" s="10">
+        <f>COUNTIF(N5:N48,"NG")</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="103">
@@ -8673,7 +8840,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="49" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="239">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -2897,6 +2897,54 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降単体テスト実施
+2024年12月28日</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認日付：２０２４年１２月１９日～１２月２８日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3351,7 +3399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3649,6 +3697,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3938,7 +3995,7 @@
   <dimension ref="B1:AD155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O135" sqref="O135:P135"/>
+      <selection activeCell="J9" sqref="J9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -3976,12 +4033,12 @@
       </c>
       <c r="G2" s="69"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="I2" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="5"/>
       <c r="N2" s="67" t="s">
         <v>185</v>
@@ -7785,8 +7842,12 @@
       <c r="K135" s="96"/>
       <c r="L135" s="96"/>
       <c r="M135" s="97"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="32"/>
+      <c r="N135" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O135" s="29" t="s">
+        <v>237</v>
+      </c>
       <c r="P135" s="33"/>
     </row>
     <row r="136" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7810,7 +7871,9 @@
       <c r="K136" s="96"/>
       <c r="L136" s="96"/>
       <c r="M136" s="97"/>
-      <c r="N136" s="6"/>
+      <c r="N136" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O136" s="32"/>
       <c r="P136" s="33"/>
     </row>
@@ -7835,7 +7898,9 @@
       <c r="K137" s="96"/>
       <c r="L137" s="96"/>
       <c r="M137" s="97"/>
-      <c r="N137" s="6"/>
+      <c r="N137" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O137" s="32"/>
       <c r="P137" s="33"/>
     </row>
@@ -7860,7 +7925,9 @@
       <c r="K138" s="96"/>
       <c r="L138" s="96"/>
       <c r="M138" s="97"/>
-      <c r="N138" s="6"/>
+      <c r="N138" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O138" s="32"/>
       <c r="P138" s="33"/>
     </row>
@@ -7885,7 +7952,9 @@
       <c r="K139" s="96"/>
       <c r="L139" s="96"/>
       <c r="M139" s="97"/>
-      <c r="N139" s="6"/>
+      <c r="N139" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O139" s="32"/>
       <c r="P139" s="33"/>
     </row>
@@ -7910,7 +7979,9 @@
       <c r="K140" s="96"/>
       <c r="L140" s="96"/>
       <c r="M140" s="97"/>
-      <c r="N140" s="6"/>
+      <c r="N140" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O140" s="32"/>
       <c r="P140" s="33"/>
     </row>
@@ -7935,7 +8006,9 @@
       <c r="K141" s="96"/>
       <c r="L141" s="96"/>
       <c r="M141" s="97"/>
-      <c r="N141" s="6"/>
+      <c r="N141" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O141" s="32"/>
       <c r="P141" s="33"/>
     </row>
@@ -7960,7 +8033,9 @@
       <c r="K142" s="96"/>
       <c r="L142" s="96"/>
       <c r="M142" s="97"/>
-      <c r="N142" s="6"/>
+      <c r="N142" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O142" s="32"/>
       <c r="P142" s="33"/>
     </row>
@@ -7985,7 +8060,9 @@
       <c r="K143" s="96"/>
       <c r="L143" s="96"/>
       <c r="M143" s="97"/>
-      <c r="N143" s="6"/>
+      <c r="N143" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O143" s="32"/>
       <c r="P143" s="33"/>
     </row>
@@ -8010,7 +8087,9 @@
       <c r="K144" s="96"/>
       <c r="L144" s="96"/>
       <c r="M144" s="97"/>
-      <c r="N144" s="6"/>
+      <c r="N144" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O144" s="32"/>
       <c r="P144" s="33"/>
     </row>
@@ -8035,7 +8114,9 @@
       <c r="K145" s="96"/>
       <c r="L145" s="96"/>
       <c r="M145" s="97"/>
-      <c r="N145" s="6"/>
+      <c r="N145" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O145" s="32"/>
       <c r="P145" s="33"/>
     </row>
@@ -8060,7 +8141,9 @@
       <c r="K146" s="96"/>
       <c r="L146" s="96"/>
       <c r="M146" s="97"/>
-      <c r="N146" s="6"/>
+      <c r="N146" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O146" s="32"/>
       <c r="P146" s="33"/>
     </row>
@@ -8085,7 +8168,9 @@
       <c r="K147" s="96"/>
       <c r="L147" s="96"/>
       <c r="M147" s="97"/>
-      <c r="N147" s="6"/>
+      <c r="N147" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O147" s="32"/>
       <c r="P147" s="33"/>
     </row>
@@ -8095,7 +8180,7 @@
       </c>
       <c r="N149" s="10">
         <f>COUNTIF(N5:N147,"OK")</f>
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.2">
@@ -12953,7 +13038,7 @@
   <dimension ref="B1:P50"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="243">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -2975,6 +2975,25 @@
 11.「住所(番地)」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可とし、100字以内で入力
 12.「アカウント権限」を「一般」または「管理者」で選択
 13.入力フォーム下部のボタン「確認する」をクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認日付：2024年2月28日</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3428,7 +3447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3738,9 +3757,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4039,7 +4055,7 @@
   <dimension ref="B1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4094,7 @@
       <c r="G2" s="70"/>
       <c r="H2" s="2"/>
       <c r="I2" s="68" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="J2" s="69"/>
       <c r="K2" s="69"/>
@@ -4149,7 +4165,9 @@
       <c r="K5" s="60"/>
       <c r="L5" s="60"/>
       <c r="M5" s="61"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O5" s="88"/>
       <c r="P5" s="89"/>
     </row>
@@ -4178,7 +4196,9 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
       <c r="M6" s="61"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O6" s="88"/>
       <c r="P6" s="89"/>
     </row>
@@ -4207,7 +4227,9 @@
       <c r="K7" s="60"/>
       <c r="L7" s="60"/>
       <c r="M7" s="61"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O7" s="88"/>
       <c r="P7" s="89"/>
     </row>
@@ -4230,7 +4252,9 @@
       <c r="K8" s="60"/>
       <c r="L8" s="60"/>
       <c r="M8" s="61"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O8" s="88"/>
       <c r="P8" s="89"/>
     </row>
@@ -4253,7 +4277,9 @@
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="61"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O9" s="88"/>
       <c r="P9" s="89"/>
     </row>
@@ -4276,7 +4302,9 @@
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="61"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O10" s="88"/>
       <c r="P10" s="89"/>
     </row>
@@ -4299,7 +4327,9 @@
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
       <c r="M11" s="61"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O11" s="88"/>
       <c r="P11" s="89"/>
     </row>
@@ -4322,7 +4352,9 @@
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="61"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O12" s="88"/>
       <c r="P12" s="89"/>
     </row>
@@ -4345,7 +4377,9 @@
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
       <c r="M13" s="61"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O13" s="88"/>
       <c r="P13" s="89"/>
     </row>
@@ -4368,7 +4402,9 @@
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="61"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O14" s="88"/>
       <c r="P14" s="89"/>
     </row>
@@ -4391,7 +4427,9 @@
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="61"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O15" s="88"/>
       <c r="P15" s="89"/>
     </row>
@@ -4414,7 +4452,9 @@
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="61"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O16" s="88"/>
       <c r="P16" s="89"/>
     </row>
@@ -4437,7 +4477,9 @@
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="61"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O17" s="88"/>
       <c r="P17" s="89"/>
     </row>
@@ -4460,7 +4502,9 @@
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="61"/>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O18" s="88"/>
       <c r="P18" s="89"/>
     </row>
@@ -4487,7 +4531,9 @@
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O19" s="88"/>
       <c r="P19" s="89"/>
     </row>
@@ -4510,7 +4556,9 @@
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="61"/>
-      <c r="N20" s="6"/>
+      <c r="N20" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O20" s="88"/>
       <c r="P20" s="89"/>
     </row>
@@ -4533,7 +4581,9 @@
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="61"/>
-      <c r="N21" s="6"/>
+      <c r="N21" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O21" s="88"/>
       <c r="P21" s="89"/>
     </row>
@@ -4556,7 +4606,9 @@
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="61"/>
-      <c r="N22" s="6"/>
+      <c r="N22" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O22" s="88"/>
       <c r="P22" s="89"/>
     </row>
@@ -4579,7 +4631,9 @@
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="61"/>
-      <c r="N23" s="6"/>
+      <c r="N23" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O23" s="88"/>
       <c r="P23" s="89"/>
     </row>
@@ -4602,7 +4656,9 @@
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="61"/>
-      <c r="N24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O24" s="88"/>
       <c r="P24" s="89"/>
     </row>
@@ -4625,7 +4681,9 @@
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="61"/>
-      <c r="N25" s="6"/>
+      <c r="N25" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O25" s="88"/>
       <c r="P25" s="89"/>
     </row>
@@ -4648,7 +4706,9 @@
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="61"/>
-      <c r="N26" s="6"/>
+      <c r="N26" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O26" s="88"/>
       <c r="P26" s="89"/>
     </row>
@@ -4671,7 +4731,9 @@
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="61"/>
-      <c r="N27" s="6"/>
+      <c r="N27" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O27" s="88"/>
       <c r="P27" s="89"/>
     </row>
@@ -4694,7 +4756,9 @@
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="61"/>
-      <c r="N28" s="6"/>
+      <c r="N28" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O28" s="88"/>
       <c r="P28" s="89"/>
     </row>
@@ -4717,7 +4781,9 @@
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="61"/>
-      <c r="N29" s="6"/>
+      <c r="N29" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O29" s="88"/>
       <c r="P29" s="89"/>
     </row>
@@ -4740,7 +4806,9 @@
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="61"/>
-      <c r="N30" s="6"/>
+      <c r="N30" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O30" s="88"/>
       <c r="P30" s="89"/>
     </row>
@@ -4761,13 +4829,15 @@
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
       <c r="I31" s="32"/>
-      <c r="J31" s="104" t="s">
+      <c r="J31" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="6"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O31" s="88"/>
       <c r="P31" s="89"/>
     </row>
@@ -4796,7 +4866,9 @@
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="61"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O32" s="88"/>
       <c r="P32" s="89"/>
     </row>
@@ -4821,7 +4893,9 @@
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="61"/>
-      <c r="N33" s="6"/>
+      <c r="N33" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O33" s="88"/>
       <c r="P33" s="89"/>
     </row>
@@ -4846,7 +4920,9 @@
       <c r="K34" s="60"/>
       <c r="L34" s="60"/>
       <c r="M34" s="61"/>
-      <c r="N34" s="6"/>
+      <c r="N34" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O34" s="88"/>
       <c r="P34" s="89"/>
     </row>
@@ -4871,7 +4947,9 @@
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="61"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O35" s="88"/>
       <c r="P35" s="89"/>
     </row>
@@ -4896,7 +4974,9 @@
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="61"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O36" s="88"/>
       <c r="P36" s="89"/>
     </row>
@@ -4921,7 +5001,9 @@
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="61"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O37" s="88"/>
       <c r="P37" s="89"/>
     </row>
@@ -4946,7 +5028,9 @@
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="61"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O38" s="88"/>
       <c r="P38" s="89"/>
     </row>
@@ -4965,13 +5049,15 @@
       <c r="G39" s="92"/>
       <c r="H39" s="92"/>
       <c r="I39" s="93"/>
-      <c r="J39" s="59" t="s">
+      <c r="J39" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="6"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O39" s="88"/>
       <c r="P39" s="89"/>
     </row>
@@ -4996,7 +5082,9 @@
       <c r="K40" s="60"/>
       <c r="L40" s="60"/>
       <c r="M40" s="61"/>
-      <c r="N40" s="103"/>
+      <c r="N40" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O40" s="88"/>
       <c r="P40" s="89"/>
     </row>
@@ -5021,7 +5109,9 @@
       <c r="K41" s="60"/>
       <c r="L41" s="60"/>
       <c r="M41" s="61"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O41" s="88"/>
       <c r="P41" s="89"/>
     </row>
@@ -5046,7 +5136,9 @@
       <c r="K42" s="60"/>
       <c r="L42" s="60"/>
       <c r="M42" s="61"/>
-      <c r="N42" s="6"/>
+      <c r="N42" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O42" s="88"/>
       <c r="P42" s="89"/>
     </row>
@@ -5071,7 +5163,9 @@
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
       <c r="M43" s="61"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O43" s="88"/>
       <c r="P43" s="89"/>
     </row>
@@ -5096,7 +5190,9 @@
       <c r="K44" s="60"/>
       <c r="L44" s="60"/>
       <c r="M44" s="61"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O44" s="88"/>
       <c r="P44" s="89"/>
     </row>
@@ -5121,7 +5217,9 @@
       <c r="K45" s="60"/>
       <c r="L45" s="60"/>
       <c r="M45" s="61"/>
-      <c r="N45" s="9"/>
+      <c r="N45" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O45" s="88"/>
       <c r="P45" s="89"/>
     </row>
@@ -5146,7 +5244,9 @@
       <c r="K46" s="60"/>
       <c r="L46" s="60"/>
       <c r="M46" s="61"/>
-      <c r="N46" s="6"/>
+      <c r="N46" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O46" s="88"/>
       <c r="P46" s="89"/>
     </row>
@@ -5171,7 +5271,9 @@
       <c r="K47" s="60"/>
       <c r="L47" s="60"/>
       <c r="M47" s="61"/>
-      <c r="N47" s="6"/>
+      <c r="N47" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O47" s="88"/>
       <c r="P47" s="89"/>
     </row>
@@ -5200,7 +5302,9 @@
       <c r="K48" s="97"/>
       <c r="L48" s="97"/>
       <c r="M48" s="98"/>
-      <c r="N48" s="6"/>
+      <c r="N48" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O48" s="88"/>
       <c r="P48" s="89"/>
     </row>
@@ -5225,7 +5329,9 @@
       <c r="K49" s="97"/>
       <c r="L49" s="97"/>
       <c r="M49" s="98"/>
-      <c r="N49" s="6"/>
+      <c r="N49" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O49" s="88"/>
       <c r="P49" s="89"/>
     </row>
@@ -5250,7 +5356,9 @@
       <c r="K50" s="97"/>
       <c r="L50" s="97"/>
       <c r="M50" s="98"/>
-      <c r="N50" s="6"/>
+      <c r="N50" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O50" s="88"/>
       <c r="P50" s="89"/>
     </row>
@@ -5275,7 +5383,9 @@
       <c r="K51" s="97"/>
       <c r="L51" s="97"/>
       <c r="M51" s="98"/>
-      <c r="N51" s="6"/>
+      <c r="N51" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O51" s="88"/>
       <c r="P51" s="89"/>
     </row>
@@ -5300,7 +5410,9 @@
       <c r="K52" s="97"/>
       <c r="L52" s="97"/>
       <c r="M52" s="98"/>
-      <c r="N52" s="6"/>
+      <c r="N52" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O52" s="88"/>
       <c r="P52" s="89"/>
     </row>
@@ -5325,7 +5437,9 @@
       <c r="K53" s="97"/>
       <c r="L53" s="97"/>
       <c r="M53" s="98"/>
-      <c r="N53" s="6"/>
+      <c r="N53" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O53" s="88"/>
       <c r="P53" s="89"/>
     </row>
@@ -5350,7 +5464,9 @@
       <c r="K54" s="97"/>
       <c r="L54" s="97"/>
       <c r="M54" s="98"/>
-      <c r="N54" s="6"/>
+      <c r="N54" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O54" s="88"/>
       <c r="P54" s="89"/>
     </row>
@@ -5375,7 +5491,9 @@
       <c r="K55" s="97"/>
       <c r="L55" s="97"/>
       <c r="M55" s="98"/>
-      <c r="N55" s="6"/>
+      <c r="N55" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O55" s="88"/>
       <c r="P55" s="89"/>
     </row>
@@ -5400,7 +5518,9 @@
       <c r="K56" s="97"/>
       <c r="L56" s="97"/>
       <c r="M56" s="98"/>
-      <c r="N56" s="103"/>
+      <c r="N56" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O56" s="88"/>
       <c r="P56" s="89"/>
     </row>
@@ -5425,7 +5545,9 @@
       <c r="K57" s="97"/>
       <c r="L57" s="97"/>
       <c r="M57" s="98"/>
-      <c r="N57" s="6"/>
+      <c r="N57" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O57" s="88"/>
       <c r="P57" s="89"/>
     </row>
@@ -5450,7 +5572,9 @@
       <c r="K58" s="97"/>
       <c r="L58" s="97"/>
       <c r="M58" s="98"/>
-      <c r="N58" s="6"/>
+      <c r="N58" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O58" s="88"/>
       <c r="P58" s="89"/>
     </row>
@@ -5475,7 +5599,9 @@
       <c r="K59" s="97"/>
       <c r="L59" s="97"/>
       <c r="M59" s="98"/>
-      <c r="N59" s="6"/>
+      <c r="N59" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O59" s="88"/>
       <c r="P59" s="89"/>
     </row>
@@ -5500,7 +5626,9 @@
       <c r="K60" s="97"/>
       <c r="L60" s="97"/>
       <c r="M60" s="98"/>
-      <c r="N60" s="6"/>
+      <c r="N60" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O60" s="88"/>
       <c r="P60" s="89"/>
     </row>
@@ -5510,7 +5638,7 @@
       </c>
       <c r="N62" s="10">
         <f>COUNTIF(N5:N60,"OK")</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.2">

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="366">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -4889,6 +4889,49 @@
     </rPh>
     <rPh sb="65" eb="67">
       <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面での表示内容が「空欄のため更新されません」の場合は更新されず、黒丸表示の場合は、パスワードのハッシュ値が変更される</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>クロマル</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6004,7 +6047,7 @@
   <dimension ref="A1:AD316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C82"/>
+      <selection activeCell="J280" sqref="J280:M280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -13472,7 +13515,7 @@
       <c r="H280" s="48"/>
       <c r="I280" s="49"/>
       <c r="J280" s="70" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="K280" s="58"/>
       <c r="L280" s="58"/>

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -13,23 +13,23 @@
   </bookViews>
   <sheets>
     <sheet name="結合テストver.3" sheetId="8" r:id="rId1"/>
-    <sheet name="単体テストver.4" sheetId="9" r:id="rId2"/>
-    <sheet name="単体テストver.3" sheetId="7" r:id="rId3"/>
-    <sheet name="結合テストver.2" sheetId="6" r:id="rId4"/>
-    <sheet name="単体テストver.2" sheetId="5" r:id="rId5"/>
-    <sheet name="結合テスト " sheetId="4" r:id="rId6"/>
+    <sheet name="結合テストver.2" sheetId="6" r:id="rId2"/>
+    <sheet name="結合テスト " sheetId="4" r:id="rId3"/>
+    <sheet name="単体テストver.4" sheetId="9" r:id="rId4"/>
+    <sheet name="単体テストver.3" sheetId="7" r:id="rId5"/>
+    <sheet name="単体テストver.2" sheetId="5" r:id="rId6"/>
     <sheet name="単体テスト" sheetId="1" r:id="rId7"/>
     <sheet name="原紙" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">単体テスト!$B$4:$P$134</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">単体テストver.2!$B$4:$P$147</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">単体テストver.3!$B$4:$P$303</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">単体テストver.4!$B$4:$P$315</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">単体テストver.2!$B$4:$P$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">単体テストver.3!$B$4:$P$303</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">単体テストver.4!$B$4:$P$315</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">単体テスト!$B$2:$P$127</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">単体テストver.2!$B$2:$P$127</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">単体テストver.3!$B$2:$P$127</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">単体テストver.4!$B$2:$P$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">単体テストver.2!$B$2:$P$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">単体テストver.3!$B$2:$P$127</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">単体テストver.4!$B$2:$P$127</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="483">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -5457,16 +5457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">アカウント操作　50件中NG2 </t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力フォーム
 最大入力文字数</t>
     <rPh sb="0" eb="2">
@@ -6332,6 +6322,66 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、「アカウント登録」ボタンをクリックし画面遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、「アカウント一覧」ボタンをクリック後画面遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント操作　12件中NG3件</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6794,7 +6844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7281,12 +7331,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7578,8 +7622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -7618,7 +7662,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="2"/>
       <c r="I2" s="83" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J2" s="85"/>
       <c r="K2" s="85"/>
@@ -8779,7 +8823,7 @@
         <v>396</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>230</v>
@@ -9176,7 +9220,7 @@
         <v>115</v>
       </c>
       <c r="F63" s="80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G63" s="73"/>
       <c r="H63" s="73"/>
@@ -10477,29 +10521,31 @@
         <v>109</v>
       </c>
       <c r="C113" s="60" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D113" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>115</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G113" s="63"/>
       <c r="H113" s="63"/>
       <c r="I113" s="64"/>
       <c r="J113" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K113" s="63"/>
       <c r="L113" s="63"/>
       <c r="M113" s="64"/>
-      <c r="N113" s="6"/>
+      <c r="N113" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O113" s="57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P113" s="58"/>
     </row>
@@ -10513,18 +10559,20 @@
         <v>115</v>
       </c>
       <c r="F114" s="62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G114" s="63"/>
       <c r="H114" s="63"/>
       <c r="I114" s="64"/>
       <c r="J114" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K114" s="63"/>
       <c r="L114" s="63"/>
       <c r="M114" s="64"/>
-      <c r="N114" s="6"/>
+      <c r="N114" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O114" s="43"/>
       <c r="P114" s="44"/>
     </row>
@@ -10533,27 +10581,29 @@
         <v>111</v>
       </c>
       <c r="C115" s="59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D115" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="E115" s="164" t="s">
-        <v>463</v>
+        <v>429</v>
+      </c>
+      <c r="E115" s="162" t="s">
+        <v>462</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G115" s="63"/>
       <c r="H115" s="63"/>
       <c r="I115" s="64"/>
       <c r="J115" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K115" s="55"/>
       <c r="L115" s="55"/>
       <c r="M115" s="56"/>
-      <c r="N115" s="162"/>
+      <c r="N115" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O115" s="43"/>
       <c r="P115" s="44"/>
     </row>
@@ -10563,22 +10613,24 @@
       </c>
       <c r="C116" s="60"/>
       <c r="D116" s="52"/>
-      <c r="E116" s="164" t="s">
-        <v>464</v>
-      </c>
-      <c r="F116" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="47"/>
+      <c r="E116" s="162" t="s">
+        <v>463</v>
+      </c>
+      <c r="F116" s="66" t="s">
+        <v>480</v>
+      </c>
+      <c r="G116" s="67"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="68"/>
       <c r="J116" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K116" s="49"/>
       <c r="L116" s="49"/>
       <c r="M116" s="50"/>
-      <c r="N116" s="162"/>
+      <c r="N116" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O116" s="43"/>
       <c r="P116" s="44"/>
     </row>
@@ -10589,21 +10641,23 @@
       <c r="C117" s="60"/>
       <c r="D117" s="52"/>
       <c r="E117" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="F117" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="G117" s="46"/>
-      <c r="H117" s="46"/>
-      <c r="I117" s="47"/>
+        <v>467</v>
+      </c>
+      <c r="F117" s="66" t="s">
+        <v>481</v>
+      </c>
+      <c r="G117" s="67"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="68"/>
       <c r="J117" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K117" s="49"/>
       <c r="L117" s="49"/>
       <c r="M117" s="50"/>
-      <c r="N117" s="162"/>
+      <c r="N117" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O117" s="43"/>
       <c r="P117" s="44"/>
     </row>
@@ -10613,26 +10667,28 @@
       </c>
       <c r="C118" s="60"/>
       <c r="D118" s="52"/>
-      <c r="E118" s="164" t="s">
-        <v>469</v>
+      <c r="E118" s="162" t="s">
+        <v>468</v>
       </c>
       <c r="F118" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G118" s="67"/>
       <c r="H118" s="67"/>
       <c r="I118" s="68"/>
       <c r="J118" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K118" s="49"/>
       <c r="L118" s="49"/>
       <c r="M118" s="50"/>
-      <c r="N118" s="163"/>
+      <c r="N118" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O118" s="43"/>
       <c r="P118" s="44"/>
       <c r="Q118" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10641,22 +10697,24 @@
       </c>
       <c r="C119" s="60"/>
       <c r="D119" s="53"/>
-      <c r="E119" s="164" t="s">
-        <v>470</v>
+      <c r="E119" s="162" t="s">
+        <v>469</v>
       </c>
       <c r="F119" s="66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G119" s="67"/>
       <c r="H119" s="67"/>
       <c r="I119" s="68"/>
       <c r="J119" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K119" s="49"/>
       <c r="L119" s="49"/>
       <c r="M119" s="50"/>
-      <c r="N119" s="162"/>
+      <c r="N119" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O119" s="43"/>
       <c r="P119" s="44"/>
     </row>
@@ -10666,24 +10724,26 @@
       </c>
       <c r="C120" s="60"/>
       <c r="D120" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="E120" s="164" t="s">
+        <v>430</v>
+      </c>
+      <c r="E120" s="162" t="s">
         <v>11</v>
       </c>
       <c r="F120" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G120" s="63"/>
       <c r="H120" s="63"/>
       <c r="I120" s="64"/>
       <c r="J120" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K120" s="55"/>
       <c r="L120" s="55"/>
       <c r="M120" s="56"/>
-      <c r="N120" s="162"/>
+      <c r="N120" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O120" s="43"/>
       <c r="P120" s="44"/>
     </row>
@@ -10693,24 +10753,28 @@
       </c>
       <c r="C121" s="60"/>
       <c r="D121" s="52"/>
-      <c r="E121" s="164" t="s">
-        <v>464</v>
+      <c r="E121" s="162" t="s">
+        <v>463</v>
       </c>
       <c r="F121" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G121" s="46"/>
       <c r="H121" s="46"/>
       <c r="I121" s="47"/>
       <c r="J121" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K121" s="49"/>
       <c r="L121" s="49"/>
       <c r="M121" s="50"/>
-      <c r="N121" s="162"/>
-      <c r="O121" s="43"/>
-      <c r="P121" s="44"/>
+      <c r="N121" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O121" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="P121" s="58"/>
     </row>
     <row r="122" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="23">
@@ -10719,21 +10783,23 @@
       <c r="C122" s="60"/>
       <c r="D122" s="52"/>
       <c r="E122" s="19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F122" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G122" s="46"/>
       <c r="H122" s="46"/>
       <c r="I122" s="47"/>
       <c r="J122" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K122" s="49"/>
       <c r="L122" s="49"/>
       <c r="M122" s="50"/>
-      <c r="N122" s="163"/>
+      <c r="N122" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O122" s="43"/>
       <c r="P122" s="44"/>
     </row>
@@ -10743,24 +10809,28 @@
       </c>
       <c r="C123" s="60"/>
       <c r="D123" s="52"/>
-      <c r="E123" s="164" t="s">
-        <v>469</v>
+      <c r="E123" s="162" t="s">
+        <v>468</v>
       </c>
       <c r="F123" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
       <c r="I123" s="47"/>
       <c r="J123" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K123" s="55"/>
       <c r="L123" s="55"/>
       <c r="M123" s="56"/>
-      <c r="N123" s="162"/>
-      <c r="O123" s="43"/>
-      <c r="P123" s="44"/>
+      <c r="N123" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O123" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="P123" s="58"/>
     </row>
     <row r="124" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="23">
@@ -10768,24 +10838,28 @@
       </c>
       <c r="C124" s="61"/>
       <c r="D124" s="53"/>
-      <c r="E124" s="164" t="s">
-        <v>470</v>
+      <c r="E124" s="162" t="s">
+        <v>469</v>
       </c>
       <c r="F124" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G124" s="46"/>
       <c r="H124" s="46"/>
       <c r="I124" s="47"/>
       <c r="J124" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K124" s="55"/>
       <c r="L124" s="55"/>
       <c r="M124" s="56"/>
-      <c r="N124" s="163"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="44"/>
+      <c r="N124" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O124" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="P124" s="58"/>
     </row>
     <row r="126" spans="2:17" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
@@ -10800,7 +10874,7 @@
       </c>
       <c r="N126" s="10">
         <f>COUNTIF(N5:N124,"OK")</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
@@ -10811,10 +10885,10 @@
       </c>
       <c r="N127" s="10">
         <f>COUNTIF(N5:N124,"NG")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P127" s="10" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -11136,10 +11210,3117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P63"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="27" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="16" max="16" width="25.77734375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="27"/>
+    <col min="18" max="18" width="10.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="84"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="90"/>
+    </row>
+    <row r="5" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+    </row>
+    <row r="6" spans="2:16" ht="397.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77"/>
+    </row>
+    <row r="7" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
+    </row>
+    <row r="8" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="76"/>
+      <c r="P8" s="77"/>
+    </row>
+    <row r="9" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+    </row>
+    <row r="10" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
+    </row>
+    <row r="11" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>7</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+    </row>
+    <row r="12" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>8</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+    </row>
+    <row r="13" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
+    </row>
+    <row r="14" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+    </row>
+    <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>11</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+    </row>
+    <row r="16" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>12</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
+    </row>
+    <row r="17" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>13</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+    </row>
+    <row r="18" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="76"/>
+      <c r="P18" s="77"/>
+    </row>
+    <row r="19" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>15</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
+    </row>
+    <row r="20" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>16</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+    </row>
+    <row r="21" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
+        <v>17</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
+    </row>
+    <row r="22" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23">
+        <v>18</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+    </row>
+    <row r="23" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+    </row>
+    <row r="24" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23">
+        <v>20</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77"/>
+    </row>
+    <row r="25" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
+        <v>21</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+    </row>
+    <row r="26" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23">
+        <v>22</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="76"/>
+      <c r="P26" s="77"/>
+    </row>
+    <row r="27" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23">
+        <v>23</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
+    </row>
+    <row r="28" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23">
+        <v>24</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
+    </row>
+    <row r="29" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23">
+        <v>25</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="76"/>
+      <c r="P29" s="77"/>
+    </row>
+    <row r="30" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23">
+        <v>26</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
+    </row>
+    <row r="31" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
+        <v>27</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23">
+        <v>28</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+    </row>
+    <row r="33" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23">
+        <v>29</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
+    </row>
+    <row r="34" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23">
+        <v>30</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
+    </row>
+    <row r="35" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
+        <v>31</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+    </row>
+    <row r="36" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23">
+        <v>32</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
+    </row>
+    <row r="37" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23">
+        <v>33</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="104"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
+    </row>
+    <row r="38" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23">
+        <v>34</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="104"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O38" s="76"/>
+      <c r="P38" s="77"/>
+    </row>
+    <row r="39" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23">
+        <v>35</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="104"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
+    </row>
+    <row r="40" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23">
+        <v>36</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="104"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" s="76"/>
+      <c r="P40" s="77"/>
+    </row>
+    <row r="41" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23">
+        <v>37</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="104"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" s="76"/>
+      <c r="P41" s="77"/>
+    </row>
+    <row r="42" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23">
+        <v>38</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O42" s="76"/>
+      <c r="P42" s="77"/>
+    </row>
+    <row r="43" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23">
+        <v>39</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="104"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" s="76"/>
+      <c r="P43" s="77"/>
+    </row>
+    <row r="44" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
+        <v>40</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
+    </row>
+    <row r="45" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23">
+        <v>41</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="104"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" s="76"/>
+      <c r="P45" s="77"/>
+    </row>
+    <row r="46" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23">
+        <v>42</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="104"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" s="76"/>
+      <c r="P46" s="77"/>
+    </row>
+    <row r="47" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23">
+        <v>43</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O47" s="76"/>
+      <c r="P47" s="77"/>
+    </row>
+    <row r="48" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="23">
+        <v>44</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="109"/>
+      <c r="N48" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O48" s="76"/>
+      <c r="P48" s="77"/>
+    </row>
+    <row r="49" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23">
+        <v>45</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="104"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O49" s="76"/>
+      <c r="P49" s="77"/>
+    </row>
+    <row r="50" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="23">
+        <v>46</v>
+      </c>
+      <c r="C50" s="60"/>
+      <c r="D50" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="104"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="109"/>
+      <c r="N50" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O50" s="76"/>
+      <c r="P50" s="77"/>
+    </row>
+    <row r="51" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="23">
+        <v>47</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="109"/>
+      <c r="N51" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O51" s="76"/>
+      <c r="P51" s="77"/>
+    </row>
+    <row r="52" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="23">
+        <v>48</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="110" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O52" s="76"/>
+      <c r="P52" s="77"/>
+    </row>
+    <row r="53" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23">
+        <v>49</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53" s="104"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="109"/>
+      <c r="N53" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O53" s="76"/>
+      <c r="P53" s="77"/>
+    </row>
+    <row r="54" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="23">
+        <v>50</v>
+      </c>
+      <c r="C54" s="60"/>
+      <c r="D54" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="104"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="109"/>
+      <c r="N54" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O54" s="76"/>
+      <c r="P54" s="77"/>
+    </row>
+    <row r="55" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="23">
+        <v>51</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O55" s="76"/>
+      <c r="P55" s="77"/>
+    </row>
+    <row r="56" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="23">
+        <v>52</v>
+      </c>
+      <c r="C56" s="60"/>
+      <c r="D56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="76"/>
+      <c r="P56" s="77"/>
+    </row>
+    <row r="57" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23">
+        <v>53</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="104"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="110" t="s">
+        <v>228</v>
+      </c>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+    </row>
+    <row r="58" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="23">
+        <v>54</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77"/>
+    </row>
+    <row r="59" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23">
+        <v>55</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+    </row>
+    <row r="60" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="23">
+        <v>56</v>
+      </c>
+      <c r="C60" s="61"/>
+      <c r="D60" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F60" s="69"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="109"/>
+      <c r="N60" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60" s="76"/>
+      <c r="P60" s="77"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M62" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N62" s="10">
+        <f>COUNTIF(N5:N60,"OK")</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M63" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N63" s="10">
+        <f>COUNTIF(N5:N60,"NG")</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="131">
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="C32:C47"/>
+    <mergeCell ref="F32:I47"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="D19:D30"/>
+    <mergeCell ref="F19:I30"/>
+    <mergeCell ref="C7:C31"/>
+    <mergeCell ref="D7:D18"/>
+    <mergeCell ref="F7:I18"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="F48:I60"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="C48:C60"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="O58:P58"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="O52:P52"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="49" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="16" max="16" width="25.77734375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="4"/>
+      <c r="F2" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="84"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="90"/>
+    </row>
+    <row r="5" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+    </row>
+    <row r="6" spans="2:16" ht="397.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O6" s="76"/>
+      <c r="P6" s="77"/>
+    </row>
+    <row r="7" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
+    </row>
+    <row r="8" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23">
+        <v>4</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O8" s="76"/>
+      <c r="P8" s="77"/>
+    </row>
+    <row r="9" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+    </row>
+    <row r="10" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>6</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
+    </row>
+    <row r="11" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>7</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O11" s="76"/>
+      <c r="P11" s="77"/>
+    </row>
+    <row r="12" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>8</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O12" s="76"/>
+      <c r="P12" s="77"/>
+    </row>
+    <row r="13" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>9</v>
+      </c>
+      <c r="C13" s="60"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O13" s="76"/>
+      <c r="P13" s="77"/>
+    </row>
+    <row r="14" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23">
+        <v>10</v>
+      </c>
+      <c r="C14" s="60"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+    </row>
+    <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>11</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+    </row>
+    <row r="16" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23">
+        <v>12</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
+    </row>
+    <row r="17" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23">
+        <v>13</v>
+      </c>
+      <c r="C17" s="60"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+    </row>
+    <row r="18" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23">
+        <v>14</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" s="76"/>
+      <c r="P18" s="77"/>
+    </row>
+    <row r="19" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23">
+        <v>15</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="76"/>
+      <c r="P19" s="77"/>
+    </row>
+    <row r="20" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="23">
+        <v>16</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+    </row>
+    <row r="21" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23">
+        <v>17</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
+    </row>
+    <row r="22" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23">
+        <v>18</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+    </row>
+    <row r="23" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+    </row>
+    <row r="24" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="23">
+        <v>20</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77"/>
+    </row>
+    <row r="25" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="23">
+        <v>21</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+    </row>
+    <row r="26" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23">
+        <v>22</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" s="76"/>
+      <c r="P26" s="77"/>
+    </row>
+    <row r="27" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="23">
+        <v>23</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" s="76"/>
+      <c r="P27" s="77"/>
+    </row>
+    <row r="28" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="23">
+        <v>24</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" s="76"/>
+      <c r="P28" s="77"/>
+    </row>
+    <row r="29" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="23">
+        <v>25</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" s="76"/>
+      <c r="P29" s="77"/>
+    </row>
+    <row r="30" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="23">
+        <v>26</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="98"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" s="76"/>
+      <c r="P30" s="77"/>
+    </row>
+    <row r="31" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23">
+        <v>27</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="76"/>
+      <c r="P31" s="77"/>
+    </row>
+    <row r="32" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23">
+        <v>28</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O32" s="76"/>
+      <c r="P32" s="77"/>
+    </row>
+    <row r="33" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="23">
+        <v>29</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="104"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
+    </row>
+    <row r="34" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23">
+        <v>30</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O34" s="76"/>
+      <c r="P34" s="77"/>
+    </row>
+    <row r="35" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23">
+        <v>31</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O35" s="76"/>
+      <c r="P35" s="77"/>
+    </row>
+    <row r="36" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="23">
+        <v>32</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
+    </row>
+    <row r="37" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="23">
+        <v>33</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="104"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O37" s="76"/>
+      <c r="P37" s="77"/>
+    </row>
+    <row r="38" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="23">
+        <v>34</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="104"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O38" s="76"/>
+      <c r="P38" s="77"/>
+    </row>
+    <row r="39" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="23">
+        <v>35</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="104"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
+    </row>
+    <row r="40" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="23">
+        <v>36</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="104"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O40" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="P40" s="77"/>
+    </row>
+    <row r="41" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="23">
+        <v>37</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="104"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O41" s="76"/>
+      <c r="P41" s="77"/>
+    </row>
+    <row r="42" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23">
+        <v>38</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O42" s="76"/>
+      <c r="P42" s="77"/>
+    </row>
+    <row r="43" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="23">
+        <v>39</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="104"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O43" s="76"/>
+      <c r="P43" s="77"/>
+    </row>
+    <row r="44" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="23">
+        <v>40</v>
+      </c>
+      <c r="C44" s="60"/>
+      <c r="D44" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
+      <c r="J44" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
+    </row>
+    <row r="45" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="23">
+        <v>41</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="104"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O45" s="76"/>
+      <c r="P45" s="77"/>
+    </row>
+    <row r="46" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="23">
+        <v>42</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="104"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O46" s="76"/>
+      <c r="P46" s="77"/>
+    </row>
+    <row r="47" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="23">
+        <v>43</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O47" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" s="77"/>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" s="10">
+        <f>COUNTIF(N5:N47,"OK")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M50" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N50" s="10">
+        <f>COUNTIF(N5:N47,"NG")</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="103">
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="C32:C47"/>
+    <mergeCell ref="F32:I47"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C7:C31"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D19:D30"/>
+    <mergeCell ref="F19:I30"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="D7:D18"/>
+    <mergeCell ref="F7:I18"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="49" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD325"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O302" sqref="O302:P302"/>
+    <sheetView topLeftCell="A305" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N309" sqref="N309:P309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -11178,7 +14359,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="2"/>
       <c r="I2" s="127" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -19467,22 +22648,22 @@
         <v>298</v>
       </c>
       <c r="C302" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D302" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E302" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E302" s="13" t="s">
-        <v>422</v>
-      </c>
       <c r="F302" s="62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G302" s="63"/>
       <c r="H302" s="63"/>
       <c r="I302" s="64"/>
       <c r="J302" s="62" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K302" s="63"/>
       <c r="L302" s="63"/>
@@ -19491,7 +22672,7 @@
         <v>186</v>
       </c>
       <c r="O302" s="57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P302" s="58"/>
     </row>
@@ -19502,16 +22683,16 @@
       <c r="C303" s="60"/>
       <c r="D303" s="75"/>
       <c r="E303" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F303" s="62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G303" s="63"/>
       <c r="H303" s="63"/>
       <c r="I303" s="64"/>
       <c r="J303" s="62" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K303" s="63"/>
       <c r="L303" s="63"/>
@@ -19528,19 +22709,19 @@
       </c>
       <c r="C304" s="60"/>
       <c r="D304" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E304" s="13" t="s">
         <v>135</v>
       </c>
       <c r="F304" s="62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G304" s="63"/>
       <c r="H304" s="63"/>
       <c r="I304" s="64"/>
       <c r="J304" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K304" s="63"/>
       <c r="L304" s="63"/>
@@ -19561,13 +22742,13 @@
         <v>135</v>
       </c>
       <c r="F305" s="62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G305" s="63"/>
       <c r="H305" s="63"/>
       <c r="I305" s="64"/>
       <c r="J305" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K305" s="63"/>
       <c r="L305" s="63"/>
@@ -19583,22 +22764,22 @@
         <v>302</v>
       </c>
       <c r="C306" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D306" s="51" t="s">
         <v>11</v>
       </c>
       <c r="E306" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F306" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G306" s="63"/>
       <c r="H306" s="63"/>
       <c r="I306" s="64"/>
       <c r="J306" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K306" s="55"/>
       <c r="L306" s="55"/>
@@ -19616,16 +22797,16 @@
       <c r="C307" s="60"/>
       <c r="D307" s="53"/>
       <c r="E307" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F307" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G307" s="63"/>
       <c r="H307" s="63"/>
       <c r="I307" s="64"/>
       <c r="J307" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K307" s="55"/>
       <c r="L307" s="55"/>
@@ -19642,19 +22823,19 @@
       </c>
       <c r="C308" s="60"/>
       <c r="D308" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E308" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F308" s="45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G308" s="46"/>
       <c r="H308" s="46"/>
       <c r="I308" s="47"/>
       <c r="J308" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K308" s="49"/>
       <c r="L308" s="49"/>
@@ -19672,16 +22853,16 @@
       <c r="C309" s="60"/>
       <c r="D309" s="53"/>
       <c r="E309" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F309" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G309" s="46"/>
       <c r="H309" s="46"/>
       <c r="I309" s="47"/>
       <c r="J309" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K309" s="49"/>
       <c r="L309" s="49"/>
@@ -19690,11 +22871,11 @@
         <v>187</v>
       </c>
       <c r="O309" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P309" s="58"/>
       <c r="Q309" s="41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="310" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19703,19 +22884,19 @@
       </c>
       <c r="C310" s="60"/>
       <c r="D310" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="E310" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F310" s="45" t="s">
         <v>442</v>
-      </c>
-      <c r="E310" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="F310" s="45" t="s">
-        <v>443</v>
       </c>
       <c r="G310" s="46"/>
       <c r="H310" s="46"/>
       <c r="I310" s="47"/>
       <c r="J310" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K310" s="49"/>
       <c r="L310" s="49"/>
@@ -19733,16 +22914,16 @@
       <c r="C311" s="60"/>
       <c r="D311" s="53"/>
       <c r="E311" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F311" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G311" s="46"/>
       <c r="H311" s="46"/>
       <c r="I311" s="47"/>
       <c r="J311" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K311" s="49"/>
       <c r="L311" s="49"/>
@@ -19759,19 +22940,19 @@
       </c>
       <c r="C312" s="60"/>
       <c r="D312" s="51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E312" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F312" s="66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G312" s="67"/>
       <c r="H312" s="67"/>
       <c r="I312" s="68"/>
       <c r="J312" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K312" s="49"/>
       <c r="L312" s="49"/>
@@ -19789,16 +22970,16 @@
       <c r="C313" s="60"/>
       <c r="D313" s="53"/>
       <c r="E313" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F313" s="45" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G313" s="46"/>
       <c r="H313" s="46"/>
       <c r="I313" s="47"/>
       <c r="J313" s="54" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K313" s="55"/>
       <c r="L313" s="55"/>
@@ -19807,7 +22988,7 @@
         <v>187</v>
       </c>
       <c r="O313" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P313" s="58"/>
     </row>
@@ -19817,19 +22998,19 @@
       </c>
       <c r="C314" s="60"/>
       <c r="D314" s="51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E314" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F314" s="66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G314" s="67"/>
       <c r="H314" s="67"/>
       <c r="I314" s="68"/>
       <c r="J314" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K314" s="49"/>
       <c r="L314" s="49"/>
@@ -19847,16 +23028,16 @@
       <c r="C315" s="61"/>
       <c r="D315" s="53"/>
       <c r="E315" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F315" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G315" s="46"/>
       <c r="H315" s="46"/>
       <c r="I315" s="47"/>
       <c r="J315" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K315" s="55"/>
       <c r="L315" s="55"/>
@@ -19865,7 +23046,7 @@
         <v>187</v>
       </c>
       <c r="O315" s="57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P315" s="58"/>
     </row>
@@ -19889,7 +23070,7 @@
         <v>154</v>
       </c>
       <c r="D318" s="160" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E318" s="160"/>
       <c r="F318" s="160"/>
@@ -20889,7 +24070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD313"/>
   <sheetViews>
@@ -20933,7 +24114,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="2"/>
       <c r="I2" s="127" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -30253,1755 +33434,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P63"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="2" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="27" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="10"/>
-    <col min="16" max="16" width="25.77734375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="27"/>
-    <col min="18" max="18" width="10.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="83" t="s">
-        <v>479</v>
-      </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="84"/>
-    </row>
-    <row r="3" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="90"/>
-    </row>
-    <row r="5" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-    </row>
-    <row r="6" spans="2:16" ht="397.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-    </row>
-    <row r="7" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>3</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-    </row>
-    <row r="8" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>4</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-    </row>
-    <row r="9" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
-        <v>5</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-    </row>
-    <row r="10" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
-        <v>6</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
-    </row>
-    <row r="11" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
-        <v>7</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
-        <v>8</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-    </row>
-    <row r="13" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
-        <v>9</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-    </row>
-    <row r="14" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
-        <v>10</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-    </row>
-    <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
-        <v>11</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-    </row>
-    <row r="16" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
-        <v>12</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-    </row>
-    <row r="17" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
-        <v>13</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-    </row>
-    <row r="18" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
-        <v>14</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-    </row>
-    <row r="19" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
-        <v>15</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-    </row>
-    <row r="20" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
-        <v>16</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-    </row>
-    <row r="21" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
-        <v>17</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O21" s="76"/>
-      <c r="P21" s="77"/>
-    </row>
-    <row r="22" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
-        <v>18</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O22" s="76"/>
-      <c r="P22" s="77"/>
-    </row>
-    <row r="23" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
-        <v>19</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23">
-        <v>20</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-    </row>
-    <row r="25" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
-        <v>21</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77"/>
-    </row>
-    <row r="26" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
-        <v>22</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77"/>
-    </row>
-    <row r="27" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>23</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O27" s="76"/>
-      <c r="P27" s="77"/>
-    </row>
-    <row r="28" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
-        <v>24</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-    </row>
-    <row r="29" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>25</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O29" s="76"/>
-      <c r="P29" s="77"/>
-    </row>
-    <row r="30" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <v>26</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
-    </row>
-    <row r="31" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>27</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="101" t="s">
-        <v>143</v>
-      </c>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
-    </row>
-    <row r="32" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>28</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-    </row>
-    <row r="33" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
-        <v>29</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
-    </row>
-    <row r="34" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
-        <v>30</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
-    </row>
-    <row r="35" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
-        <v>31</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O35" s="76"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
-        <v>32</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O36" s="76"/>
-      <c r="P36" s="77"/>
-    </row>
-    <row r="37" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
-        <v>33</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O37" s="76"/>
-      <c r="P37" s="77"/>
-    </row>
-    <row r="38" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
-        <v>34</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O38" s="76"/>
-      <c r="P38" s="77"/>
-    </row>
-    <row r="39" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
-        <v>35</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77"/>
-    </row>
-    <row r="40" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
-        <v>36</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O40" s="76"/>
-      <c r="P40" s="77"/>
-    </row>
-    <row r="41" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
-        <v>37</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O41" s="76"/>
-      <c r="P41" s="77"/>
-    </row>
-    <row r="42" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
-        <v>38</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="104"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O42" s="76"/>
-      <c r="P42" s="77"/>
-    </row>
-    <row r="43" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
-        <v>39</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O43" s="76"/>
-      <c r="P43" s="77"/>
-    </row>
-    <row r="44" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
-        <v>40</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O44" s="76"/>
-      <c r="P44" s="77"/>
-    </row>
-    <row r="45" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
-        <v>41</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O45" s="76"/>
-      <c r="P45" s="77"/>
-    </row>
-    <row r="46" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23">
-        <v>42</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="104"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O46" s="76"/>
-      <c r="P46" s="77"/>
-    </row>
-    <row r="47" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
-        <v>43</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O47" s="76"/>
-      <c r="P47" s="77"/>
-    </row>
-    <row r="48" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23">
-        <v>44</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="107" t="s">
-        <v>231</v>
-      </c>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O48" s="76"/>
-      <c r="P48" s="77"/>
-    </row>
-    <row r="49" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23">
-        <v>45</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="104"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O49" s="76"/>
-      <c r="P49" s="77"/>
-    </row>
-    <row r="50" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="23">
-        <v>46</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="104"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="K50" s="108"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O50" s="76"/>
-      <c r="P50" s="77"/>
-    </row>
-    <row r="51" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="23">
-        <v>47</v>
-      </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="104"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O51" s="76"/>
-      <c r="P51" s="77"/>
-    </row>
-    <row r="52" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23">
-        <v>48</v>
-      </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="104"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O52" s="76"/>
-      <c r="P52" s="77"/>
-    </row>
-    <row r="53" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23">
-        <v>49</v>
-      </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F53" s="104"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="110" t="s">
-        <v>233</v>
-      </c>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O53" s="76"/>
-      <c r="P53" s="77"/>
-    </row>
-    <row r="54" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23">
-        <v>50</v>
-      </c>
-      <c r="C54" s="60"/>
-      <c r="D54" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="104"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="110" t="s">
-        <v>225</v>
-      </c>
-      <c r="K54" s="108"/>
-      <c r="L54" s="108"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O54" s="76"/>
-      <c r="P54" s="77"/>
-    </row>
-    <row r="55" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="23">
-        <v>51</v>
-      </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="104"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="106"/>
-      <c r="J55" s="110" t="s">
-        <v>226</v>
-      </c>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O55" s="76"/>
-      <c r="P55" s="77"/>
-    </row>
-    <row r="56" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="23">
-        <v>52</v>
-      </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="104"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="K56" s="108"/>
-      <c r="L56" s="108"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O56" s="76"/>
-      <c r="P56" s="77"/>
-    </row>
-    <row r="57" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23">
-        <v>53</v>
-      </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F57" s="104"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O57" s="76"/>
-      <c r="P57" s="77"/>
-    </row>
-    <row r="58" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="23">
-        <v>54</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F58" s="104"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="K58" s="108"/>
-      <c r="L58" s="108"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O58" s="76"/>
-      <c r="P58" s="77"/>
-    </row>
-    <row r="59" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="23">
-        <v>55</v>
-      </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" s="104"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="106"/>
-      <c r="J59" s="110" t="s">
-        <v>234</v>
-      </c>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O59" s="76"/>
-      <c r="P59" s="77"/>
-    </row>
-    <row r="60" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="23">
-        <v>56</v>
-      </c>
-      <c r="C60" s="61"/>
-      <c r="D60" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F60" s="69"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="O60" s="76"/>
-      <c r="P60" s="77"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M62" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="N62" s="10">
-        <f>COUNTIF(N5:N60,"OK")</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="M63" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="N63" s="10">
-        <f>COUNTIF(N5:N60,"NG")</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="C32:C47"/>
-    <mergeCell ref="F32:I47"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="D19:D30"/>
-    <mergeCell ref="F19:I30"/>
-    <mergeCell ref="C7:C31"/>
-    <mergeCell ref="D7:D18"/>
-    <mergeCell ref="F7:I18"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="F48:I60"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="C48:C60"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="O52:P52"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" max="49" man="1"/>
-  </colBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD155"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:M7"/>
+      <selection activeCell="F19" sqref="F19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -32040,7 +33478,7 @@
       <c r="G2" s="84"/>
       <c r="H2" s="2"/>
       <c r="I2" s="127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J2" s="128"/>
       <c r="K2" s="128"/>
@@ -36707,1370 +38145,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5546875" style="10" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="10"/>
-    <col min="16" max="16" width="25.77734375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="4"/>
-      <c r="F2" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="84"/>
-    </row>
-    <row r="3" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="90"/>
-    </row>
-    <row r="5" spans="2:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
-    </row>
-    <row r="6" spans="2:16" ht="397.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="77"/>
-    </row>
-    <row r="7" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>3</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O7" s="76"/>
-      <c r="P7" s="77"/>
-    </row>
-    <row r="8" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>4</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O8" s="76"/>
-      <c r="P8" s="77"/>
-    </row>
-    <row r="9" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
-        <v>5</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-    </row>
-    <row r="10" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
-        <v>6</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
-    </row>
-    <row r="11" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23">
-        <v>7</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23">
-        <v>8</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O12" s="76"/>
-      <c r="P12" s="77"/>
-    </row>
-    <row r="13" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23">
-        <v>9</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="77"/>
-    </row>
-    <row r="14" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23">
-        <v>10</v>
-      </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="76"/>
-      <c r="P14" s="77"/>
-    </row>
-    <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23">
-        <v>11</v>
-      </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
-    </row>
-    <row r="16" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23">
-        <v>12</v>
-      </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-    </row>
-    <row r="17" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23">
-        <v>13</v>
-      </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-    </row>
-    <row r="18" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23">
-        <v>14</v>
-      </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-    </row>
-    <row r="19" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23">
-        <v>15</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O19" s="76"/>
-      <c r="P19" s="77"/>
-    </row>
-    <row r="20" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23">
-        <v>16</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
-    </row>
-    <row r="21" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23">
-        <v>17</v>
-      </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O21" s="76"/>
-      <c r="P21" s="77"/>
-    </row>
-    <row r="22" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23">
-        <v>18</v>
-      </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O22" s="76"/>
-      <c r="P22" s="77"/>
-    </row>
-    <row r="23" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23">
-        <v>19</v>
-      </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="77"/>
-    </row>
-    <row r="24" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23">
-        <v>20</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77"/>
-    </row>
-    <row r="25" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23">
-        <v>21</v>
-      </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77"/>
-    </row>
-    <row r="26" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23">
-        <v>22</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O26" s="76"/>
-      <c r="P26" s="77"/>
-    </row>
-    <row r="27" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23">
-        <v>23</v>
-      </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O27" s="76"/>
-      <c r="P27" s="77"/>
-    </row>
-    <row r="28" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="23">
-        <v>24</v>
-      </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O28" s="76"/>
-      <c r="P28" s="77"/>
-    </row>
-    <row r="29" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23">
-        <v>25</v>
-      </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O29" s="76"/>
-      <c r="P29" s="77"/>
-    </row>
-    <row r="30" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23">
-        <v>26</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
-    </row>
-    <row r="31" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23">
-        <v>27</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O31" s="76"/>
-      <c r="P31" s="77"/>
-    </row>
-    <row r="32" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23">
-        <v>28</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O32" s="76"/>
-      <c r="P32" s="77"/>
-    </row>
-    <row r="33" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="23">
-        <v>29</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O33" s="76"/>
-      <c r="P33" s="77"/>
-    </row>
-    <row r="34" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23">
-        <v>30</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O34" s="76"/>
-      <c r="P34" s="77"/>
-    </row>
-    <row r="35" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23">
-        <v>31</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O35" s="76"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23">
-        <v>32</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="104"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O36" s="76"/>
-      <c r="P36" s="77"/>
-    </row>
-    <row r="37" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="23">
-        <v>33</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="104"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O37" s="76"/>
-      <c r="P37" s="77"/>
-    </row>
-    <row r="38" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="23">
-        <v>34</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="104"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O38" s="76"/>
-      <c r="P38" s="77"/>
-    </row>
-    <row r="39" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23">
-        <v>35</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O39" s="76"/>
-      <c r="P39" s="77"/>
-    </row>
-    <row r="40" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="23">
-        <v>36</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="104"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="O40" s="76" t="s">
-        <v>202</v>
-      </c>
-      <c r="P40" s="77"/>
-    </row>
-    <row r="41" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23">
-        <v>37</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="104"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O41" s="76"/>
-      <c r="P41" s="77"/>
-    </row>
-    <row r="42" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23">
-        <v>38</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="104"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O42" s="76"/>
-      <c r="P42" s="77"/>
-    </row>
-    <row r="43" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="23">
-        <v>39</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="104"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O43" s="76"/>
-      <c r="P43" s="77"/>
-    </row>
-    <row r="44" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="23">
-        <v>40</v>
-      </c>
-      <c r="C44" s="60"/>
-      <c r="D44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="104"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="106"/>
-      <c r="J44" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O44" s="76"/>
-      <c r="P44" s="77"/>
-    </row>
-    <row r="45" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="23">
-        <v>41</v>
-      </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="104"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="O45" s="76"/>
-      <c r="P45" s="77"/>
-    </row>
-    <row r="46" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23">
-        <v>42</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F46" s="104"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O46" s="76"/>
-      <c r="P46" s="77"/>
-    </row>
-    <row r="47" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23">
-        <v>43</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="O47" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="P47" s="77"/>
-    </row>
-    <row r="49" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M49" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N49" s="10">
-        <f>COUNTIF(N5:N47,"OK")</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="13:14" x14ac:dyDescent="0.2">
-      <c r="M50" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="N50" s="10">
-        <f>COUNTIF(N5:N47,"NG")</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="C32:C47"/>
-    <mergeCell ref="F32:I47"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C7:C31"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D19:D30"/>
-    <mergeCell ref="F19:I30"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="D7:D18"/>
-    <mergeCell ref="F7:I18"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="O4:P4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="4" max="49" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>
 

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5119" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5160" uniqueCount="527">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -6881,6 +6881,224 @@
     </rPh>
     <rPh sb="56" eb="60">
       <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、同じブラウザで
+「http://localhost/regist/delete_confirm.php」を検索し画面表示させる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、同じブラウザで
+「http://localhost/regist/delete_complete.php」を検索し画面表示させる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、同じブラウザで
+「http://localhost/regist/update_confirm.php」を検索し画面表示させる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="78" eb="82">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面で「管理者」権限にてログイン後、同じブラウザで
+「http://localhost/regist/update_complete.php」を検索し画面表示させる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="79" eb="83">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録確認画面が開く</t>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面が開く</t>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面に
+遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面に
+遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面に
+遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新完了画面に
+遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面が開く</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン機能単体テスト　37件中NG21件</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7343,7 +7561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7836,12 +8054,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -14827,8 +15039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C82"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M347" sqref="M347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -23346,7 +23558,9 @@
       <c r="K308" s="121"/>
       <c r="L308" s="121"/>
       <c r="M308" s="122"/>
-      <c r="N308" s="6"/>
+      <c r="N308" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O308" s="71" t="s">
         <v>483</v>
       </c>
@@ -23434,7 +23648,9 @@
       <c r="K311" s="121"/>
       <c r="L311" s="121"/>
       <c r="M311" s="122"/>
-      <c r="N311" s="6"/>
+      <c r="N311" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O311" s="71"/>
       <c r="P311" s="72"/>
     </row>
@@ -23461,9 +23677,13 @@
       <c r="K312" s="121"/>
       <c r="L312" s="121"/>
       <c r="M312" s="122"/>
-      <c r="N312" s="164"/>
-      <c r="O312" s="71"/>
-      <c r="P312" s="72"/>
+      <c r="N312" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O312" s="123" t="s">
+        <v>519</v>
+      </c>
+      <c r="P312" s="124"/>
     </row>
     <row r="313" spans="2:17" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B313" s="23">
@@ -23486,9 +23706,13 @@
       <c r="K313" s="121"/>
       <c r="L313" s="121"/>
       <c r="M313" s="122"/>
-      <c r="N313" s="165"/>
-      <c r="O313" s="71"/>
-      <c r="P313" s="72"/>
+      <c r="N313" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O313" s="123" t="s">
+        <v>519</v>
+      </c>
+      <c r="P313" s="124"/>
     </row>
     <row r="314" spans="2:17" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B314" s="23">
@@ -23511,9 +23735,13 @@
       <c r="K314" s="121"/>
       <c r="L314" s="121"/>
       <c r="M314" s="122"/>
-      <c r="N314" s="6"/>
-      <c r="O314" s="71"/>
-      <c r="P314" s="72"/>
+      <c r="N314" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O314" s="123" t="s">
+        <v>519</v>
+      </c>
+      <c r="P314" s="124"/>
     </row>
     <row r="315" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B315" s="23">
@@ -23538,9 +23766,13 @@
       <c r="K315" s="121"/>
       <c r="L315" s="121"/>
       <c r="M315" s="122"/>
-      <c r="N315" s="164"/>
-      <c r="O315" s="71"/>
-      <c r="P315" s="72"/>
+      <c r="N315" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O315" s="123" t="s">
+        <v>520</v>
+      </c>
+      <c r="P315" s="124"/>
     </row>
     <row r="316" spans="2:17" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B316" s="23">
@@ -23563,9 +23795,13 @@
       <c r="K316" s="121"/>
       <c r="L316" s="121"/>
       <c r="M316" s="122"/>
-      <c r="N316" s="165"/>
-      <c r="O316" s="71"/>
-      <c r="P316" s="72"/>
+      <c r="N316" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O316" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P316" s="124"/>
     </row>
     <row r="317" spans="2:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B317" s="23">
@@ -23588,9 +23824,13 @@
       <c r="K317" s="121"/>
       <c r="L317" s="121"/>
       <c r="M317" s="122"/>
-      <c r="N317" s="165"/>
-      <c r="O317" s="71"/>
-      <c r="P317" s="72"/>
+      <c r="N317" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O317" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P317" s="124"/>
     </row>
     <row r="318" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B318" s="23">
@@ -23669,7 +23909,9 @@
       <c r="K320" s="121"/>
       <c r="L320" s="121"/>
       <c r="M320" s="122"/>
-      <c r="N320" s="6"/>
+      <c r="N320" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O320" s="71"/>
       <c r="P320" s="72"/>
     </row>
@@ -23752,11 +23994,13 @@
       <c r="K323" s="121"/>
       <c r="L323" s="121"/>
       <c r="M323" s="122"/>
-      <c r="N323" s="165"/>
+      <c r="N323" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O323" s="71"/>
       <c r="P323" s="72"/>
     </row>
-    <row r="324" spans="2:16" s="43" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B324" s="23">
         <v>320</v>
       </c>
@@ -23768,7 +24012,7 @@
         <v>429</v>
       </c>
       <c r="F324" s="125" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="G324" s="126"/>
       <c r="H324" s="126"/>
@@ -23779,9 +24023,13 @@
       <c r="K324" s="121"/>
       <c r="L324" s="121"/>
       <c r="M324" s="122"/>
-      <c r="N324" s="164"/>
-      <c r="O324" s="71"/>
-      <c r="P324" s="72"/>
+      <c r="N324" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O324" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="P324" s="124"/>
     </row>
     <row r="325" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B325" s="23">
@@ -23804,9 +24052,13 @@
       <c r="K325" s="121"/>
       <c r="L325" s="121"/>
       <c r="M325" s="122"/>
-      <c r="N325" s="165"/>
-      <c r="O325" s="71"/>
-      <c r="P325" s="72"/>
+      <c r="N325" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O325" s="145" t="s">
+        <v>521</v>
+      </c>
+      <c r="P325" s="124"/>
     </row>
     <row r="326" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B326" s="23">
@@ -23829,11 +24081,15 @@
       <c r="K326" s="121"/>
       <c r="L326" s="121"/>
       <c r="M326" s="122"/>
-      <c r="N326" s="165"/>
-      <c r="O326" s="71"/>
-      <c r="P326" s="72"/>
-    </row>
-    <row r="327" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N326" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O326" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P326" s="124"/>
+    </row>
+    <row r="327" spans="2:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B327" s="23">
         <v>323</v>
       </c>
@@ -23845,7 +24101,7 @@
         <v>429</v>
       </c>
       <c r="F327" s="125" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="G327" s="126"/>
       <c r="H327" s="126"/>
@@ -23856,9 +24112,13 @@
       <c r="K327" s="121"/>
       <c r="L327" s="121"/>
       <c r="M327" s="122"/>
-      <c r="N327" s="164"/>
-      <c r="O327" s="71"/>
-      <c r="P327" s="72"/>
+      <c r="N327" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O327" s="145" t="s">
+        <v>522</v>
+      </c>
+      <c r="P327" s="124"/>
     </row>
     <row r="328" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B328" s="23">
@@ -23881,9 +24141,13 @@
       <c r="K328" s="121"/>
       <c r="L328" s="121"/>
       <c r="M328" s="122"/>
-      <c r="N328" s="165"/>
-      <c r="O328" s="71"/>
-      <c r="P328" s="72"/>
+      <c r="N328" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O328" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P328" s="124"/>
     </row>
     <row r="329" spans="2:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B329" s="23">
@@ -23906,9 +24170,13 @@
       <c r="K329" s="121"/>
       <c r="L329" s="121"/>
       <c r="M329" s="122"/>
-      <c r="N329" s="165"/>
-      <c r="O329" s="71"/>
-      <c r="P329" s="72"/>
+      <c r="N329" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O329" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P329" s="124"/>
     </row>
     <row r="330" spans="2:16" s="43" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B330" s="23">
@@ -23989,11 +24257,13 @@
       <c r="K332" s="121"/>
       <c r="L332" s="121"/>
       <c r="M332" s="122"/>
-      <c r="N332" s="165"/>
+      <c r="N332" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O332" s="71"/>
       <c r="P332" s="72"/>
     </row>
-    <row r="333" spans="2:16" s="43" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B333" s="23">
         <v>329</v>
       </c>
@@ -24005,7 +24275,7 @@
         <v>429</v>
       </c>
       <c r="F333" s="125" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="G333" s="126"/>
       <c r="H333" s="126"/>
@@ -24016,9 +24286,13 @@
       <c r="K333" s="121"/>
       <c r="L333" s="121"/>
       <c r="M333" s="122"/>
-      <c r="N333" s="164"/>
-      <c r="O333" s="71"/>
-      <c r="P333" s="72"/>
+      <c r="N333" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O333" s="145" t="s">
+        <v>523</v>
+      </c>
+      <c r="P333" s="124"/>
     </row>
     <row r="334" spans="2:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B334" s="23">
@@ -24041,9 +24315,13 @@
       <c r="K334" s="121"/>
       <c r="L334" s="121"/>
       <c r="M334" s="122"/>
-      <c r="N334" s="165"/>
-      <c r="O334" s="71"/>
-      <c r="P334" s="72"/>
+      <c r="N334" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O334" s="145" t="s">
+        <v>523</v>
+      </c>
+      <c r="P334" s="124"/>
     </row>
     <row r="335" spans="2:16" s="43" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B335" s="23">
@@ -24066,11 +24344,15 @@
       <c r="K335" s="121"/>
       <c r="L335" s="121"/>
       <c r="M335" s="122"/>
-      <c r="N335" s="165"/>
-      <c r="O335" s="71"/>
-      <c r="P335" s="72"/>
-    </row>
-    <row r="336" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N335" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O335" s="145" t="s">
+        <v>523</v>
+      </c>
+      <c r="P335" s="124"/>
+    </row>
+    <row r="336" spans="2:16" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B336" s="23">
         <v>332</v>
       </c>
@@ -24082,7 +24364,7 @@
         <v>429</v>
       </c>
       <c r="F336" s="125" t="s">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="G336" s="126"/>
       <c r="H336" s="126"/>
@@ -24093,9 +24375,13 @@
       <c r="K336" s="121"/>
       <c r="L336" s="121"/>
       <c r="M336" s="122"/>
-      <c r="N336" s="164"/>
-      <c r="O336" s="71"/>
-      <c r="P336" s="72"/>
+      <c r="N336" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O336" s="145" t="s">
+        <v>524</v>
+      </c>
+      <c r="P336" s="124"/>
     </row>
     <row r="337" spans="1:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="43" t="s">
@@ -24121,9 +24407,13 @@
       <c r="K337" s="121"/>
       <c r="L337" s="121"/>
       <c r="M337" s="122"/>
-      <c r="N337" s="165"/>
-      <c r="O337" s="71"/>
-      <c r="P337" s="72"/>
+      <c r="N337" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O337" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P337" s="124"/>
     </row>
     <row r="338" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B338" s="23">
@@ -24146,9 +24436,13 @@
       <c r="K338" s="121"/>
       <c r="L338" s="121"/>
       <c r="M338" s="122"/>
-      <c r="N338" s="165"/>
-      <c r="O338" s="71"/>
-      <c r="P338" s="72"/>
+      <c r="N338" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O338" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="P338" s="124"/>
     </row>
     <row r="340" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M340" s="10" t="s">
@@ -24156,7 +24450,7 @@
       </c>
       <c r="N340" s="10">
         <f>COUNTIF(N5:N338,"OK")</f>
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P340" s="41" t="s">
         <v>389</v>
@@ -24182,10 +24476,10 @@
       </c>
       <c r="N341" s="10">
         <f>COUNTIF(N5:N338,"NG")</f>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P341" s="41" t="s">
-        <v>390</v>
+        <v>526</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.2">

--- a/test (自動保存済み).xlsx
+++ b/test (自動保存済み).xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5215" uniqueCount="550">
   <si>
     <t>テストケース</t>
     <phoneticPr fontId="1"/>
@@ -6281,19 +6281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント操作　12件中NG3件</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンチュウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>以降テスト項目の修正</t>
     <rPh sb="0" eb="2">
       <t>イコウ</t>
@@ -7276,22 +7263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新確認画面に遷移する</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新完了画面に遷移する</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -7355,6 +7326,85 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※そのまま「登録する」ボタンを押すと空欄でアカウント登録される。</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント更新画面に遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に
+遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント操作　24件中NG9件</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7826,7 +7876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8328,12 +8378,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -8634,8 +8678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -8674,7 +8718,7 @@
       <c r="G2" s="119"/>
       <c r="H2" s="2"/>
       <c r="I2" s="118" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J2" s="120"/>
       <c r="K2" s="120"/>
@@ -11556,10 +11600,10 @@
       <c r="N113" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O113" s="172" t="s">
-        <v>544</v>
-      </c>
-      <c r="P113" s="169"/>
+      <c r="O113" s="170" t="s">
+        <v>542</v>
+      </c>
+      <c r="P113" s="167"/>
     </row>
     <row r="114" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="23">
@@ -11585,8 +11629,8 @@
       <c r="N114" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O114" s="170"/>
-      <c r="P114" s="171"/>
+      <c r="O114" s="168"/>
+      <c r="P114" s="169"/>
     </row>
     <row r="115" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="23">
@@ -11634,12 +11678,12 @@
       <c r="G116" s="52"/>
       <c r="H116" s="52"/>
       <c r="I116" s="53"/>
-      <c r="J116" s="48" t="s">
+      <c r="J116" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="K116" s="49"/>
-      <c r="L116" s="49"/>
-      <c r="M116" s="50"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="55"/>
+      <c r="M116" s="56"/>
       <c r="N116" s="6" t="s">
         <v>194</v>
       </c>
@@ -11647,62 +11691,70 @@
       <c r="P116" s="80"/>
     </row>
     <row r="117" spans="2:17" s="45" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="23"/>
+      <c r="B117" s="23">
+        <v>113</v>
+      </c>
       <c r="C117" s="61"/>
       <c r="D117" s="58"/>
       <c r="E117" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F117" s="51" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G117" s="52"/>
       <c r="H117" s="52"/>
       <c r="I117" s="53"/>
       <c r="J117" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K117" s="55"/>
       <c r="L117" s="55"/>
       <c r="M117" s="56"/>
-      <c r="N117" s="6"/>
+      <c r="N117" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O117" s="79"/>
       <c r="P117" s="80"/>
     </row>
     <row r="118" spans="2:17" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="23"/>
+      <c r="B118" s="23">
+        <v>114</v>
+      </c>
       <c r="C118" s="61"/>
       <c r="D118" s="58"/>
       <c r="E118" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F118" s="51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G118" s="52"/>
       <c r="H118" s="52"/>
       <c r="I118" s="53"/>
       <c r="J118" s="54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K118" s="55"/>
       <c r="L118" s="55"/>
       <c r="M118" s="56"/>
-      <c r="N118" s="6"/>
+      <c r="N118" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O118" s="79"/>
       <c r="P118" s="80"/>
     </row>
     <row r="119" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="23">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C119" s="61"/>
       <c r="D119" s="58"/>
       <c r="E119" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F119" s="51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G119" s="52"/>
       <c r="H119" s="52"/>
@@ -11721,7 +11773,7 @@
     </row>
     <row r="120" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="23">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C120" s="61"/>
       <c r="D120" s="58"/>
@@ -11729,7 +11781,7 @@
         <v>467</v>
       </c>
       <c r="F120" s="51" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G120" s="52"/>
       <c r="H120" s="52"/>
@@ -11750,53 +11802,63 @@
       </c>
     </row>
     <row r="121" spans="2:17" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="23"/>
+      <c r="B121" s="23">
+        <v>117</v>
+      </c>
       <c r="C121" s="61"/>
       <c r="D121" s="58"/>
       <c r="E121" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="F121" s="51" t="s">
         <v>533</v>
-      </c>
-      <c r="F121" s="51" t="s">
-        <v>534</v>
       </c>
       <c r="G121" s="52"/>
       <c r="H121" s="52"/>
       <c r="I121" s="53"/>
       <c r="J121" s="54" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K121" s="55"/>
       <c r="L121" s="55"/>
       <c r="M121" s="56"/>
-      <c r="N121" s="6"/>
+      <c r="N121" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O121" s="79"/>
       <c r="P121" s="80"/>
     </row>
     <row r="122" spans="2:17" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="23"/>
+      <c r="B122" s="23">
+        <v>118</v>
+      </c>
       <c r="C122" s="61"/>
       <c r="D122" s="58"/>
       <c r="E122" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F122" s="51" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G122" s="52"/>
       <c r="H122" s="52"/>
       <c r="I122" s="53"/>
       <c r="J122" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K122" s="55"/>
       <c r="L122" s="55"/>
       <c r="M122" s="56"/>
-      <c r="N122" s="6"/>
+      <c r="N122" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O122" s="79"/>
       <c r="P122" s="80"/>
     </row>
     <row r="123" spans="2:17" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="23"/>
+      <c r="B123" s="23">
+        <v>119</v>
+      </c>
       <c r="C123" s="61"/>
       <c r="D123" s="58"/>
       <c r="E123" s="44" t="s">
@@ -11814,50 +11876,56 @@
       <c r="K123" s="49"/>
       <c r="L123" s="49"/>
       <c r="M123" s="50"/>
-      <c r="N123" s="6"/>
+      <c r="N123" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O123" s="79"/>
       <c r="P123" s="80"/>
     </row>
     <row r="124" spans="2:17" s="45" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="23"/>
+      <c r="B124" s="23">
+        <v>120</v>
+      </c>
       <c r="C124" s="61"/>
       <c r="D124" s="58"/>
       <c r="E124" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F124" s="51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G124" s="52"/>
       <c r="H124" s="52"/>
       <c r="I124" s="53"/>
       <c r="J124" s="54" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K124" s="55"/>
       <c r="L124" s="55"/>
       <c r="M124" s="56"/>
-      <c r="N124" s="6"/>
+      <c r="N124" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O124" s="79"/>
       <c r="P124" s="80"/>
     </row>
     <row r="125" spans="2:17" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="23">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C125" s="61"/>
       <c r="D125" s="59"/>
       <c r="E125" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F125" s="51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G125" s="52"/>
       <c r="H125" s="52"/>
       <c r="I125" s="53"/>
       <c r="J125" s="54" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K125" s="55"/>
       <c r="L125" s="55"/>
@@ -11869,7 +11937,9 @@
       <c r="P125" s="80"/>
     </row>
     <row r="126" spans="2:17" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="23"/>
+      <c r="B126" s="23">
+        <v>122</v>
+      </c>
       <c r="C126" s="61"/>
       <c r="D126" s="57" t="s">
         <v>430</v>
@@ -11889,12 +11959,16 @@
       <c r="K126" s="55"/>
       <c r="L126" s="55"/>
       <c r="M126" s="56"/>
-      <c r="N126" s="6"/>
+      <c r="N126" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O126" s="79"/>
       <c r="P126" s="80"/>
     </row>
     <row r="127" spans="2:17" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="23"/>
+      <c r="B127" s="23">
+        <v>123</v>
+      </c>
       <c r="C127" s="61"/>
       <c r="D127" s="58"/>
       <c r="E127" s="44" t="s">
@@ -11906,68 +11980,86 @@
       <c r="G127" s="127"/>
       <c r="H127" s="127"/>
       <c r="I127" s="128"/>
-      <c r="J127" s="48" t="s">
+      <c r="J127" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="K127" s="49"/>
-      <c r="L127" s="49"/>
-      <c r="M127" s="50"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="79"/>
-      <c r="P127" s="80"/>
-    </row>
-    <row r="128" spans="2:17" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="23"/>
+      <c r="K127" s="55"/>
+      <c r="L127" s="55"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O127" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="P127" s="130"/>
+    </row>
+    <row r="128" spans="2:17" s="46" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="23">
+        <v>124</v>
+      </c>
       <c r="C128" s="61"/>
       <c r="D128" s="58"/>
       <c r="E128" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F128" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G128" s="52"/>
       <c r="H128" s="52"/>
       <c r="I128" s="53"/>
       <c r="J128" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K128" s="55"/>
       <c r="L128" s="55"/>
       <c r="M128" s="56"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="79"/>
-      <c r="P128" s="80"/>
-    </row>
-    <row r="129" spans="2:16" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="23"/>
+      <c r="N128" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O128" s="131" t="s">
+        <v>547</v>
+      </c>
+      <c r="P128" s="130"/>
+    </row>
+    <row r="129" spans="2:16" s="46" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="23">
+        <v>125</v>
+      </c>
       <c r="C129" s="61"/>
       <c r="D129" s="58"/>
       <c r="E129" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F129" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G129" s="52"/>
       <c r="H129" s="52"/>
       <c r="I129" s="53"/>
       <c r="J129" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K129" s="55"/>
       <c r="L129" s="55"/>
       <c r="M129" s="56"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="79"/>
-      <c r="P129" s="80"/>
+      <c r="N129" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O129" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="P129" s="130"/>
     </row>
     <row r="130" spans="2:16" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="23"/>
+      <c r="B130" s="23">
+        <v>126</v>
+      </c>
       <c r="C130" s="61"/>
       <c r="D130" s="58"/>
       <c r="E130" s="19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F130" s="126" t="s">
         <v>443</v>
@@ -11981,12 +12073,16 @@
       <c r="K130" s="55"/>
       <c r="L130" s="55"/>
       <c r="M130" s="56"/>
-      <c r="N130" s="6"/>
+      <c r="N130" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="O130" s="79"/>
       <c r="P130" s="80"/>
     </row>
     <row r="131" spans="2:16" s="46" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="23"/>
+      <c r="B131" s="23">
+        <v>127</v>
+      </c>
       <c r="C131" s="61"/>
       <c r="D131" s="58"/>
       <c r="E131" s="44" t="s">
@@ -12004,63 +12100,75 @@
       <c r="K131" s="55"/>
       <c r="L131" s="55"/>
       <c r="M131" s="56"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="79"/>
-      <c r="P131" s="80"/>
-    </row>
-    <row r="132" spans="2:16" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N131" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O131" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="P131" s="130"/>
+    </row>
+    <row r="132" spans="2:16" s="42" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B132" s="23">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C132" s="61"/>
       <c r="D132" s="58"/>
       <c r="E132" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F132" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G132" s="52"/>
       <c r="H132" s="52"/>
       <c r="I132" s="53"/>
       <c r="J132" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K132" s="55"/>
       <c r="L132" s="55"/>
       <c r="M132" s="56"/>
-      <c r="N132" s="167"/>
-      <c r="O132" s="79"/>
-      <c r="P132" s="80"/>
-    </row>
-    <row r="133" spans="2:16" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N132" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O132" s="131" t="s">
+        <v>516</v>
+      </c>
+      <c r="P132" s="130"/>
+    </row>
+    <row r="133" spans="2:16" s="42" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="23">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C133" s="61"/>
       <c r="D133" s="58"/>
       <c r="E133" s="19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F133" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G133" s="52"/>
       <c r="H133" s="52"/>
       <c r="I133" s="53"/>
       <c r="J133" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K133" s="55"/>
       <c r="L133" s="55"/>
       <c r="M133" s="56"/>
-      <c r="N133" s="168"/>
-      <c r="O133" s="79"/>
-      <c r="P133" s="80"/>
+      <c r="N133" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O133" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="P133" s="130"/>
     </row>
     <row r="134" spans="2:16" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="23">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C134" s="61"/>
       <c r="D134" s="58"/>
@@ -12079,59 +12187,71 @@
       <c r="K134" s="55"/>
       <c r="L134" s="55"/>
       <c r="M134" s="56"/>
-      <c r="N134" s="167"/>
-      <c r="O134" s="79"/>
-      <c r="P134" s="80"/>
-    </row>
-    <row r="135" spans="2:16" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N134" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O134" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="P134" s="130"/>
+    </row>
+    <row r="135" spans="2:16" s="42" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="23">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C135" s="61"/>
       <c r="D135" s="58"/>
       <c r="E135" s="19" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F135" s="51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G135" s="52"/>
       <c r="H135" s="52"/>
       <c r="I135" s="53"/>
       <c r="J135" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K135" s="55"/>
       <c r="L135" s="55"/>
       <c r="M135" s="56"/>
-      <c r="N135" s="168"/>
-      <c r="O135" s="79"/>
-      <c r="P135" s="80"/>
-    </row>
-    <row r="136" spans="2:16" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N135" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O135" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="P135" s="130"/>
+    </row>
+    <row r="136" spans="2:16" s="42" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="23">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C136" s="62"/>
       <c r="D136" s="59"/>
       <c r="E136" s="19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F136" s="51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G136" s="52"/>
       <c r="H136" s="52"/>
       <c r="I136" s="53"/>
       <c r="J136" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K136" s="55"/>
       <c r="L136" s="55"/>
       <c r="M136" s="56"/>
-      <c r="N136" s="168"/>
-      <c r="O136" s="79"/>
-      <c r="P136" s="80"/>
+      <c r="N136" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O136" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="P136" s="130"/>
     </row>
     <row r="138" spans="2:16" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="10"/>
@@ -12146,7 +12266,7 @@
       </c>
       <c r="N138" s="10">
         <f>COUNTIF(N5:N136,"OK")</f>
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
@@ -12157,10 +12277,10 @@
       </c>
       <c r="N139" s="10">
         <f>COUNTIF(N5:N136,"NG")</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P139" s="10" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -15626,8 +15746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD348"/>
   <sheetViews>
-    <sheetView topLeftCell="A299" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337:M337"/>
+    <sheetView topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N312" sqref="N312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -24131,10 +24251,10 @@
       <c r="C308" s="61"/>
       <c r="D308" s="59"/>
       <c r="E308" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="F308" s="63" t="s">
         <v>494</v>
-      </c>
-      <c r="F308" s="63" t="s">
-        <v>495</v>
       </c>
       <c r="G308" s="64"/>
       <c r="H308" s="64"/>
@@ -24149,7 +24269,7 @@
         <v>186</v>
       </c>
       <c r="O308" s="79" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P308" s="80"/>
     </row>
@@ -24221,10 +24341,10 @@
       <c r="C311" s="61"/>
       <c r="D311" s="59"/>
       <c r="E311" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F311" s="63" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G311" s="64"/>
       <c r="H311" s="64"/>
@@ -24247,19 +24367,19 @@
       </c>
       <c r="C312" s="61"/>
       <c r="D312" s="57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E312" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F312" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G312" s="52"/>
       <c r="H312" s="52"/>
       <c r="I312" s="53"/>
       <c r="J312" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K312" s="55"/>
       <c r="L312" s="55"/>
@@ -24268,9 +24388,12 @@
         <v>187</v>
       </c>
       <c r="O312" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P312" s="130"/>
+      <c r="Q312" s="43" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="313" spans="2:17" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B313" s="23">
@@ -24282,13 +24405,13 @@
         <v>430</v>
       </c>
       <c r="F313" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G313" s="52"/>
       <c r="H313" s="52"/>
       <c r="I313" s="53"/>
       <c r="J313" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K313" s="55"/>
       <c r="L313" s="55"/>
@@ -24297,7 +24420,7 @@
         <v>187</v>
       </c>
       <c r="O313" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P313" s="130"/>
     </row>
@@ -24308,10 +24431,10 @@
       <c r="C314" s="61"/>
       <c r="D314" s="59"/>
       <c r="E314" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F314" s="63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G314" s="64"/>
       <c r="H314" s="64"/>
@@ -24326,7 +24449,7 @@
         <v>187</v>
       </c>
       <c r="O314" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P314" s="130"/>
     </row>
@@ -24336,19 +24459,19 @@
       </c>
       <c r="C315" s="61"/>
       <c r="D315" s="57" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E315" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F315" s="51" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G315" s="52"/>
       <c r="H315" s="52"/>
       <c r="I315" s="53"/>
       <c r="J315" s="54" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K315" s="55"/>
       <c r="L315" s="55"/>
@@ -24357,7 +24480,7 @@
         <v>187</v>
       </c>
       <c r="O315" s="129" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P315" s="130"/>
     </row>
@@ -24371,13 +24494,13 @@
         <v>430</v>
       </c>
       <c r="F316" s="51" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G316" s="52"/>
       <c r="H316" s="52"/>
       <c r="I316" s="53"/>
       <c r="J316" s="54" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K316" s="55"/>
       <c r="L316" s="55"/>
@@ -24386,7 +24509,7 @@
         <v>187</v>
       </c>
       <c r="O316" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P316" s="130"/>
     </row>
@@ -24397,10 +24520,10 @@
       <c r="C317" s="61"/>
       <c r="D317" s="59"/>
       <c r="E317" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F317" s="63" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G317" s="64"/>
       <c r="H317" s="64"/>
@@ -24415,7 +24538,7 @@
         <v>187</v>
       </c>
       <c r="O317" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P317" s="130"/>
     </row>
@@ -24482,10 +24605,10 @@
       <c r="C320" s="61"/>
       <c r="D320" s="59"/>
       <c r="E320" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F320" s="63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G320" s="64"/>
       <c r="H320" s="64"/>
@@ -24567,10 +24690,10 @@
       <c r="C323" s="61"/>
       <c r="D323" s="59"/>
       <c r="E323" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F323" s="63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G323" s="64"/>
       <c r="H323" s="64"/>
@@ -24593,19 +24716,19 @@
       </c>
       <c r="C324" s="61"/>
       <c r="D324" s="57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E324" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F324" s="51" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G324" s="52"/>
       <c r="H324" s="52"/>
       <c r="I324" s="53"/>
       <c r="J324" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K324" s="55"/>
       <c r="L324" s="55"/>
@@ -24614,7 +24737,7 @@
         <v>187</v>
       </c>
       <c r="O324" s="131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P324" s="130"/>
     </row>
@@ -24628,13 +24751,13 @@
         <v>430</v>
       </c>
       <c r="F325" s="51" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G325" s="52"/>
       <c r="H325" s="52"/>
       <c r="I325" s="53"/>
       <c r="J325" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K325" s="55"/>
       <c r="L325" s="55"/>
@@ -24643,7 +24766,7 @@
         <v>187</v>
       </c>
       <c r="O325" s="131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P325" s="130"/>
     </row>
@@ -24654,10 +24777,10 @@
       <c r="C326" s="61"/>
       <c r="D326" s="59"/>
       <c r="E326" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F326" s="63" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G326" s="64"/>
       <c r="H326" s="64"/>
@@ -24672,7 +24795,7 @@
         <v>187</v>
       </c>
       <c r="O326" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P326" s="130"/>
     </row>
@@ -24682,19 +24805,19 @@
       </c>
       <c r="C327" s="61"/>
       <c r="D327" s="57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E327" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F327" s="51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G327" s="52"/>
       <c r="H327" s="52"/>
       <c r="I327" s="53"/>
       <c r="J327" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K327" s="55"/>
       <c r="L327" s="55"/>
@@ -24703,7 +24826,7 @@
         <v>187</v>
       </c>
       <c r="O327" s="131" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P327" s="130"/>
     </row>
@@ -24717,13 +24840,13 @@
         <v>430</v>
       </c>
       <c r="F328" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G328" s="52"/>
       <c r="H328" s="52"/>
       <c r="I328" s="53"/>
       <c r="J328" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K328" s="55"/>
       <c r="L328" s="55"/>
@@ -24732,7 +24855,7 @@
         <v>187</v>
       </c>
       <c r="O328" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P328" s="130"/>
     </row>
@@ -24743,10 +24866,10 @@
       <c r="C329" s="61"/>
       <c r="D329" s="59"/>
       <c r="E329" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F329" s="63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G329" s="64"/>
       <c r="H329" s="64"/>
@@ -24761,7 +24884,7 @@
         <v>187</v>
       </c>
       <c r="O329" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P329" s="130"/>
     </row>
@@ -24830,10 +24953,10 @@
       <c r="C332" s="61"/>
       <c r="D332" s="59"/>
       <c r="E332" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F332" s="63" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G332" s="64"/>
       <c r="H332" s="64"/>
@@ -24856,19 +24979,19 @@
       </c>
       <c r="C333" s="61"/>
       <c r="D333" s="57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E333" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F333" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G333" s="52"/>
       <c r="H333" s="52"/>
       <c r="I333" s="53"/>
       <c r="J333" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K333" s="55"/>
       <c r="L333" s="55"/>
@@ -24877,7 +25000,7 @@
         <v>187</v>
       </c>
       <c r="O333" s="131" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P333" s="130"/>
     </row>
@@ -24891,13 +25014,13 @@
         <v>430</v>
       </c>
       <c r="F334" s="51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G334" s="52"/>
       <c r="H334" s="52"/>
       <c r="I334" s="53"/>
       <c r="J334" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K334" s="55"/>
       <c r="L334" s="55"/>
@@ -24906,7 +25029,7 @@
         <v>187</v>
       </c>
       <c r="O334" s="131" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P334" s="130"/>
     </row>
@@ -24917,10 +25040,10 @@
       <c r="C335" s="61"/>
       <c r="D335" s="59"/>
       <c r="E335" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F335" s="63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G335" s="64"/>
       <c r="H335" s="64"/>
@@ -24935,7 +25058,7 @@
         <v>187</v>
       </c>
       <c r="O335" s="131" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P335" s="130"/>
     </row>
@@ -24945,19 +25068,19 @@
       </c>
       <c r="C336" s="61"/>
       <c r="D336" s="57" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E336" s="13" t="s">
         <v>429</v>
       </c>
       <c r="F336" s="51" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G336" s="52"/>
       <c r="H336" s="52"/>
       <c r="I336" s="53"/>
       <c r="J336" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K336" s="55"/>
       <c r="L336" s="55"/>
@@ -24966,13 +25089,13 @@
         <v>187</v>
       </c>
       <c r="O336" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P336" s="130"/>
     </row>
     <row r="337" spans="1:16" s="43" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B337" s="23">
         <v>333</v>
@@ -24983,13 +25106,13 @@
         <v>430</v>
       </c>
       <c r="F337" s="51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G337" s="52"/>
       <c r="H337" s="52"/>
       <c r="I337" s="53"/>
       <c r="J337" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K337" s="55"/>
       <c r="L337" s="55"/>
@@ -24998,7 +25121,7 @@
         <v>187</v>
       </c>
       <c r="O337" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P337" s="130"/>
     </row>
@@ -25009,10 +25132,10 @@
       <c r="C338" s="62"/>
       <c r="D338" s="59"/>
       <c r="E338" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F338" s="81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G338" s="82"/>
       <c r="H338" s="82"/>
@@ -25027,7 +25150,7 @@
         <v>187</v>
       </c>
       <c r="O338" s="129" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P338" s="130"/>
     </row>
@@ -25066,7 +25189,7 @@
         <v>47</v>
       </c>
       <c r="P341" s="41" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.2">
